--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="619">
   <si>
     <t>Index</t>
   </si>
@@ -34,6 +34,12 @@
     <t>OPTpP3</t>
   </si>
   <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>S Florida</t>
   </si>
   <si>
@@ -43,12 +49,12 @@
     <t>Clemson</t>
   </si>
   <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
     <t>TX Christian</t>
   </si>
   <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
     <t>N Carolina</t>
   </si>
   <si>
@@ -88,18 +94,18 @@
     <t>Virginia</t>
   </si>
   <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
     <t>UAB</t>
   </si>
   <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>App State</t>
   </si>
   <si>
@@ -139,27 +145,27 @@
     <t>S Alabama</t>
   </si>
   <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
     <t>Boston Col</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Buffalo</t>
   </si>
   <si>
     <t>Colorado St</t>
   </si>
   <si>
+    <t>Marshall</t>
+  </si>
+  <si>
     <t>Illinois</t>
   </si>
   <si>
     <t>Penn St</t>
   </si>
   <si>
-    <t>Marshall</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -214,12 +220,12 @@
     <t>UCF</t>
   </si>
   <si>
+    <t>James Mad</t>
+  </si>
+  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>James Mad</t>
-  </si>
-  <si>
     <t>Northwestern</t>
   </si>
   <si>
@@ -244,12 +250,12 @@
     <t>Miami</t>
   </si>
   <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
     <t>Florida Intl</t>
   </si>
   <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
     <t>GA Tech</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>Houston</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>Ohio St</t>
   </si>
   <si>
@@ -319,9 +328,6 @@
     <t>Louisiana</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>San Diego St</t>
   </si>
   <si>
@@ -376,12 +382,12 @@
     <t>Navy</t>
   </si>
   <si>
+    <t>U Mass</t>
+  </si>
+  <si>
     <t>Miss State</t>
   </si>
   <si>
-    <t>U Mass</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -406,12 +412,12 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
     <t>Bowling Grn</t>
   </si>
   <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
     <t>N Mex State</t>
   </si>
   <si>
@@ -442,12 +448,12 @@
     <t>83.7</t>
   </si>
   <si>
+    <t>82.7</t>
+  </si>
+  <si>
     <t>73.0</t>
   </si>
   <si>
-    <t>82.7</t>
-  </si>
-  <si>
     <t>69.7</t>
   </si>
   <si>
@@ -481,18 +487,18 @@
     <t>70.3</t>
   </si>
   <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
     <t>68.3</t>
   </si>
   <si>
     <t>72.3</t>
   </si>
   <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>61.7</t>
-  </si>
-  <si>
     <t>76.3</t>
   </si>
   <si>
@@ -511,12 +517,12 @@
     <t>71.3</t>
   </si>
   <si>
+    <t>72.0</t>
+  </si>
+  <si>
     <t>62.7</t>
   </si>
   <si>
-    <t>72.0</t>
-  </si>
-  <si>
     <t>62.3</t>
   </si>
   <si>
@@ -640,12 +646,12 @@
     <t>0.339</t>
   </si>
   <si>
+    <t>0.431</t>
+  </si>
+  <si>
     <t>0.516</t>
   </si>
   <si>
-    <t>0.431</t>
-  </si>
-  <si>
     <t>0.239</t>
   </si>
   <si>
@@ -685,15 +691,15 @@
     <t>0.314</t>
   </si>
   <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
     <t>0.336</t>
   </si>
   <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
     <t>0.397</t>
   </si>
   <si>
@@ -739,15 +745,15 @@
     <t>0.365</t>
   </si>
   <si>
+    <t>0.250</t>
+  </si>
+  <si>
     <t>0.491</t>
   </si>
   <si>
     <t>0.492</t>
   </si>
   <si>
-    <t>0.250</t>
-  </si>
-  <si>
     <t>0.325</t>
   </si>
   <si>
@@ -802,12 +808,12 @@
     <t>0.312</t>
   </si>
   <si>
+    <t>0.481</t>
+  </si>
+  <si>
     <t>0.455</t>
   </si>
   <si>
-    <t>0.481</t>
-  </si>
-  <si>
     <t>0.394</t>
   </si>
   <si>
@@ -832,12 +838,12 @@
     <t>0.483</t>
   </si>
   <si>
+    <t>0.196</t>
+  </si>
+  <si>
     <t>0.255</t>
   </si>
   <si>
-    <t>0.196</t>
-  </si>
-  <si>
     <t>0.404</t>
   </si>
   <si>
@@ -925,12 +931,12 @@
     <t>0.172</t>
   </si>
   <si>
+    <t>0.358</t>
+  </si>
+  <si>
     <t>0.287</t>
   </si>
   <si>
-    <t>0.358</t>
-  </si>
-  <si>
     <t>0.197</t>
   </si>
   <si>
@@ -955,12 +961,12 @@
     <t>0.475</t>
   </si>
   <si>
+    <t>0.302</t>
+  </si>
+  <si>
     <t>0.434</t>
   </si>
   <si>
-    <t>0.302</t>
-  </si>
-  <si>
     <t>0.067</t>
   </si>
   <si>
@@ -1027,12 +1033,12 @@
     <t>37.7</t>
   </si>
   <si>
+    <t>26.7</t>
+  </si>
+  <si>
     <t>45.0</t>
   </si>
   <si>
-    <t>26.7</t>
-  </si>
-  <si>
     <t>28.3</t>
   </si>
   <si>
@@ -1090,12 +1096,12 @@
     <t>17.7</t>
   </si>
   <si>
+    <t>23.7</t>
+  </si>
+  <si>
     <t>16.0</t>
   </si>
   <si>
-    <t>23.7</t>
-  </si>
-  <si>
     <t>43.3</t>
   </si>
   <si>
@@ -1111,12 +1117,12 @@
     <t>29.7</t>
   </si>
   <si>
+    <t>23.3</t>
+  </si>
+  <si>
     <t>41.7</t>
   </si>
   <si>
-    <t>23.3</t>
-  </si>
-  <si>
     <t>40.0</t>
   </si>
   <si>
@@ -1147,12 +1153,12 @@
     <t>34.7</t>
   </si>
   <si>
+    <t>34.0</t>
+  </si>
+  <si>
     <t>15.3</t>
   </si>
   <si>
-    <t>34.0</t>
-  </si>
-  <si>
     <t>21.3</t>
   </si>
   <si>
@@ -1192,12 +1198,12 @@
     <t>0.525</t>
   </si>
   <si>
+    <t>0.309</t>
+  </si>
+  <si>
     <t>0.507</t>
   </si>
   <si>
-    <t>0.309</t>
-  </si>
-  <si>
     <t>0.459</t>
   </si>
   <si>
@@ -1228,12 +1234,12 @@
     <t>0.579</t>
   </si>
   <si>
+    <t>0.406</t>
+  </si>
+  <si>
     <t>0.682</t>
   </si>
   <si>
-    <t>0.406</t>
-  </si>
-  <si>
     <t>0.472</t>
   </si>
   <si>
@@ -1267,10 +1273,13 @@
     <t>0.330</t>
   </si>
   <si>
+    <t>0.307</t>
+  </si>
+  <si>
     <t>0.399</t>
   </si>
   <si>
-    <t>0.307</t>
+    <t>0.384</t>
   </si>
   <si>
     <t>0.479</t>
@@ -1279,9 +1288,6 @@
     <t>0.216</t>
   </si>
   <si>
-    <t>0.384</t>
-  </si>
-  <si>
     <t>0.571</t>
   </si>
   <si>
@@ -1321,12 +1327,12 @@
     <t>0.362</t>
   </si>
   <si>
+    <t>0.360</t>
+  </si>
+  <si>
     <t>0.244</t>
   </si>
   <si>
-    <t>0.360</t>
-  </si>
-  <si>
     <t>0.297</t>
   </si>
   <si>
@@ -1339,12 +1345,12 @@
     <t>0.316</t>
   </si>
   <si>
+    <t>0.324</t>
+  </si>
+  <si>
     <t>0.563</t>
   </si>
   <si>
-    <t>0.324</t>
-  </si>
-  <si>
     <t>0.359</t>
   </si>
   <si>
@@ -1369,12 +1375,12 @@
     <t>0.356</t>
   </si>
   <si>
+    <t>0.474</t>
+  </si>
+  <si>
     <t>0.223</t>
   </si>
   <si>
-    <t>0.474</t>
-  </si>
-  <si>
     <t>0.355</t>
   </si>
   <si>
@@ -1414,12 +1420,12 @@
     <t>0.402</t>
   </si>
   <si>
+    <t>0.443</t>
+  </si>
+  <si>
     <t>0.421</t>
   </si>
   <si>
-    <t>0.443</t>
-  </si>
-  <si>
     <t>0.612</t>
   </si>
   <si>
@@ -1448,6 +1454,423 @@
   </si>
   <si>
     <t>0.377</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>WISE</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -1805,13 +2228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,2665 +2253,3469 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>392</v>
+      </c>
+      <c r="G2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>393</v>
+      </c>
+      <c r="G3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>394</v>
+      </c>
+      <c r="G5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
         <v>323</v>
       </c>
       <c r="F6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>395</v>
+      </c>
+      <c r="G6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>396</v>
+      </c>
+      <c r="G7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>397</v>
+      </c>
+      <c r="G8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>398</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>399</v>
+      </c>
+      <c r="G10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>488</v>
+      </c>
+      <c r="H11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>394</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>319</v>
+      </c>
+      <c r="G13" t="s">
+        <v>489</v>
+      </c>
+      <c r="H13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>401</v>
+      </c>
+      <c r="G14" t="s">
+        <v>490</v>
+      </c>
+      <c r="H14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>402</v>
+      </c>
+      <c r="G15" t="s">
+        <v>491</v>
+      </c>
+      <c r="H15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>403</v>
+      </c>
+      <c r="G16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>404</v>
+      </c>
+      <c r="G17" t="s">
+        <v>493</v>
+      </c>
+      <c r="H17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>236</v>
+      </c>
+      <c r="G18" t="s">
+        <v>494</v>
+      </c>
+      <c r="H18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>405</v>
+      </c>
+      <c r="G19" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>406</v>
+      </c>
+      <c r="G20" t="s">
+        <v>496</v>
+      </c>
+      <c r="H20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>405</v>
+      </c>
+      <c r="G21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>498</v>
+      </c>
+      <c r="H22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F23" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>407</v>
+      </c>
+      <c r="G23" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>408</v>
+      </c>
+      <c r="G24" t="s">
+        <v>500</v>
+      </c>
+      <c r="H24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>409</v>
+      </c>
+      <c r="G25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>410</v>
+      </c>
+      <c r="G26" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="G27" t="s">
+        <v>503</v>
+      </c>
+      <c r="H27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F28" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>411</v>
+      </c>
+      <c r="G28" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F29" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>412</v>
+      </c>
+      <c r="G29" t="s">
+        <v>504</v>
+      </c>
+      <c r="H29" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>413</v>
+      </c>
+      <c r="G30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H30" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>414</v>
+      </c>
+      <c r="G31" t="s">
+        <v>498</v>
+      </c>
+      <c r="H31" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>415</v>
+      </c>
+      <c r="G32" t="s">
+        <v>506</v>
+      </c>
+      <c r="H32" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>507</v>
+      </c>
+      <c r="H33" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F34" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>416</v>
+      </c>
+      <c r="G34" t="s">
+        <v>508</v>
+      </c>
+      <c r="H34" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>417</v>
+      </c>
+      <c r="G35" t="s">
+        <v>498</v>
+      </c>
+      <c r="H35" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F36" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>418</v>
+      </c>
+      <c r="G36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H36" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="F37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>419</v>
+      </c>
+      <c r="G37" t="s">
+        <v>510</v>
+      </c>
+      <c r="H37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="F38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>420</v>
+      </c>
+      <c r="G38" t="s">
+        <v>511</v>
+      </c>
+      <c r="H38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>512</v>
+      </c>
+      <c r="H39" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G40" t="s">
+        <v>513</v>
+      </c>
+      <c r="H40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F41" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>421</v>
+      </c>
+      <c r="G41" t="s">
+        <v>514</v>
+      </c>
+      <c r="H41" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F42" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>422</v>
+      </c>
+      <c r="G42" t="s">
+        <v>515</v>
+      </c>
+      <c r="H42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F43" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>423</v>
+      </c>
+      <c r="G43" t="s">
+        <v>516</v>
+      </c>
+      <c r="H43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E44" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F44" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>424</v>
+      </c>
+      <c r="G44" t="s">
+        <v>517</v>
+      </c>
+      <c r="H44" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F45" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>425</v>
+      </c>
+      <c r="G45" t="s">
+        <v>518</v>
+      </c>
+      <c r="H45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>236</v>
+      </c>
+      <c r="G46" t="s">
+        <v>519</v>
+      </c>
+      <c r="H46" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F47" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>426</v>
+      </c>
+      <c r="G47" t="s">
+        <v>520</v>
+      </c>
+      <c r="H47" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>427</v>
+      </c>
+      <c r="G48" t="s">
+        <v>521</v>
+      </c>
+      <c r="H48" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>428</v>
+      </c>
+      <c r="G49" t="s">
+        <v>522</v>
+      </c>
+      <c r="H49" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>429</v>
+      </c>
+      <c r="G50" t="s">
+        <v>523</v>
+      </c>
+      <c r="H50" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>498</v>
+      </c>
+      <c r="H51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>424</v>
+      </c>
+      <c r="G52" t="s">
+        <v>524</v>
+      </c>
+      <c r="H52" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>430</v>
+      </c>
+      <c r="G53" t="s">
+        <v>525</v>
+      </c>
+      <c r="H53" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F54" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>395</v>
+      </c>
+      <c r="G54" t="s">
+        <v>526</v>
+      </c>
+      <c r="H54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="G55" t="s">
+        <v>527</v>
+      </c>
+      <c r="H55" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E56" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>431</v>
+      </c>
+      <c r="G56" t="s">
+        <v>528</v>
+      </c>
+      <c r="H56" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>432</v>
+      </c>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>433</v>
+      </c>
+      <c r="G58" t="s">
+        <v>498</v>
+      </c>
+      <c r="H58" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>434</v>
+      </c>
+      <c r="G59" t="s">
+        <v>529</v>
+      </c>
+      <c r="H59" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>435</v>
+      </c>
+      <c r="G60" t="s">
+        <v>530</v>
+      </c>
+      <c r="H60" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>436</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F62" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>437</v>
+      </c>
+      <c r="G62" t="s">
+        <v>531</v>
+      </c>
+      <c r="H62" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F63" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>438</v>
+      </c>
+      <c r="G63" t="s">
+        <v>532</v>
+      </c>
+      <c r="H63" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E64" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>439</v>
+      </c>
+      <c r="G64" t="s">
+        <v>533</v>
+      </c>
+      <c r="H64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E65" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>320</v>
+      </c>
+      <c r="G66" t="s">
+        <v>534</v>
+      </c>
+      <c r="H66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E67" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>240</v>
+      </c>
+      <c r="G67" t="s">
+        <v>535</v>
+      </c>
+      <c r="H67" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E68" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>441</v>
+      </c>
+      <c r="G68" t="s">
+        <v>536</v>
+      </c>
+      <c r="H68" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F69" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>442</v>
+      </c>
+      <c r="G69" t="s">
+        <v>498</v>
+      </c>
+      <c r="H69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F70" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>419</v>
+      </c>
+      <c r="G70" t="s">
+        <v>537</v>
+      </c>
+      <c r="H70" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E71" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F71" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>414</v>
+      </c>
+      <c r="G71" t="s">
+        <v>538</v>
+      </c>
+      <c r="H71" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F72" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>443</v>
+      </c>
+      <c r="G72" t="s">
+        <v>539</v>
+      </c>
+      <c r="H72" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F73" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>444</v>
+      </c>
+      <c r="G73" t="s">
+        <v>498</v>
+      </c>
+      <c r="H73" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F74" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>299</v>
+      </c>
+      <c r="G74" t="s">
+        <v>540</v>
+      </c>
+      <c r="H74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>222</v>
+      </c>
+      <c r="G75" t="s">
+        <v>541</v>
+      </c>
+      <c r="H75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F76" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>401</v>
+      </c>
+      <c r="G76" t="s">
+        <v>542</v>
+      </c>
+      <c r="H76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E77" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>221</v>
+      </c>
+      <c r="G77" t="s">
+        <v>543</v>
+      </c>
+      <c r="H77" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F78" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>445</v>
+      </c>
+      <c r="G78" t="s">
+        <v>544</v>
+      </c>
+      <c r="H78" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F79" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="G79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H79" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E80" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F80" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>446</v>
+      </c>
+      <c r="G80" t="s">
+        <v>498</v>
+      </c>
+      <c r="H80" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E81" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>272</v>
+      </c>
+      <c r="G81" t="s">
+        <v>498</v>
+      </c>
+      <c r="H81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E82" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>273</v>
+      </c>
+      <c r="G82" t="s">
+        <v>546</v>
+      </c>
+      <c r="H82" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E83" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F83" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>299</v>
+      </c>
+      <c r="G83" t="s">
+        <v>547</v>
+      </c>
+      <c r="H83" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E84" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>289</v>
+      </c>
+      <c r="G84" t="s">
+        <v>548</v>
+      </c>
+      <c r="H84" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D85" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E85" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F85" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>447</v>
+      </c>
+      <c r="G85" t="s">
+        <v>549</v>
+      </c>
+      <c r="H85" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G86" t="s">
+        <v>550</v>
+      </c>
+      <c r="H86" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>281</v>
+      </c>
+      <c r="G87" t="s">
+        <v>551</v>
+      </c>
+      <c r="H87" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>233</v>
+      </c>
+      <c r="G88" t="s">
+        <v>552</v>
+      </c>
+      <c r="H88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G89" t="s">
+        <v>553</v>
+      </c>
+      <c r="H89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>450</v>
+      </c>
+      <c r="G90" t="s">
+        <v>554</v>
+      </c>
+      <c r="H90" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F91" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>451</v>
+      </c>
+      <c r="G91" t="s">
+        <v>555</v>
+      </c>
+      <c r="H91" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E92" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F92" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>452</v>
+      </c>
+      <c r="G92" t="s">
+        <v>556</v>
+      </c>
+      <c r="H92" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F93" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>415</v>
+      </c>
+      <c r="G93" t="s">
+        <v>557</v>
+      </c>
+      <c r="H93" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D94" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="E94" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F94" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>453</v>
+      </c>
+      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="E95" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F95" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>403</v>
+      </c>
+      <c r="G95" t="s">
+        <v>498</v>
+      </c>
+      <c r="H95" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="F96" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>454</v>
+      </c>
+      <c r="G96" t="s">
+        <v>498</v>
+      </c>
+      <c r="H96" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E97" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="F97" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>313</v>
+      </c>
+      <c r="G97" t="s">
+        <v>558</v>
+      </c>
+      <c r="H97" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E98" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F98" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G98" t="s">
+        <v>559</v>
+      </c>
+      <c r="H98" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E99" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>455</v>
+      </c>
+      <c r="G99" t="s">
+        <v>560</v>
+      </c>
+      <c r="H99" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F100" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>456</v>
+      </c>
+      <c r="G100" t="s">
+        <v>498</v>
+      </c>
+      <c r="H100" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E101" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F101" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>457</v>
+      </c>
+      <c r="G101" t="s">
+        <v>561</v>
+      </c>
+      <c r="H101" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F102" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>318</v>
+      </c>
+      <c r="G102" t="s">
+        <v>108</v>
+      </c>
+      <c r="H102" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E103" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F103" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>238</v>
+      </c>
+      <c r="G103" t="s">
+        <v>498</v>
+      </c>
+      <c r="H103" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D104" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E104" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F104" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>458</v>
+      </c>
+      <c r="G104" t="s">
+        <v>562</v>
+      </c>
+      <c r="H104" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E105" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F105" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>459</v>
+      </c>
+      <c r="G105" t="s">
+        <v>498</v>
+      </c>
+      <c r="H105" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D106" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E106" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F106" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>218</v>
+      </c>
+      <c r="G106" t="s">
+        <v>498</v>
+      </c>
+      <c r="H106" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E107" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F107" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>460</v>
+      </c>
+      <c r="G107" t="s">
+        <v>563</v>
+      </c>
+      <c r="H107" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E108" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F108" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>402</v>
+      </c>
+      <c r="G108" t="s">
+        <v>498</v>
+      </c>
+      <c r="H108" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E109" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F109" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>461</v>
+      </c>
+      <c r="G109" t="s">
+        <v>564</v>
+      </c>
+      <c r="H109" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D110" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E110" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F110" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>462</v>
+      </c>
+      <c r="G110" t="s">
+        <v>565</v>
+      </c>
+      <c r="H110" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>463</v>
+      </c>
+      <c r="G111" t="s">
+        <v>566</v>
+      </c>
+      <c r="H111" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E112" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F112" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>464</v>
+      </c>
+      <c r="G112" t="s">
+        <v>567</v>
+      </c>
+      <c r="H112" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E113" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F113" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>465</v>
+      </c>
+      <c r="G113" t="s">
+        <v>568</v>
+      </c>
+      <c r="H113" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E114" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F114" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>466</v>
+      </c>
+      <c r="G114" t="s">
+        <v>569</v>
+      </c>
+      <c r="H114" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E115" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F115" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>467</v>
+      </c>
+      <c r="G115" t="s">
+        <v>570</v>
+      </c>
+      <c r="H115" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D116" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F116" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>468</v>
+      </c>
+      <c r="G116" t="s">
+        <v>498</v>
+      </c>
+      <c r="H116" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D117" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F117" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>469</v>
+      </c>
+      <c r="G117" t="s">
+        <v>571</v>
+      </c>
+      <c r="H117" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E118" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F118" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>410</v>
+      </c>
+      <c r="G118" t="s">
+        <v>572</v>
+      </c>
+      <c r="H118" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D119" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E119" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F119" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>470</v>
+      </c>
+      <c r="G119" t="s">
+        <v>573</v>
+      </c>
+      <c r="H119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D120" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E120" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F120" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>471</v>
+      </c>
+      <c r="G120" t="s">
+        <v>574</v>
+      </c>
+      <c r="H120" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D121" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E121" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F121" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>472</v>
+      </c>
+      <c r="G121" t="s">
+        <v>575</v>
+      </c>
+      <c r="H121" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D122" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E122" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F122" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>429</v>
+      </c>
+      <c r="G122" t="s">
+        <v>576</v>
+      </c>
+      <c r="H122" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F123" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="G123" t="s">
+        <v>577</v>
+      </c>
+      <c r="H123" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D124" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E124" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F124" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>473</v>
+      </c>
+      <c r="G124" t="s">
+        <v>578</v>
+      </c>
+      <c r="H124" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D125" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E125" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F125" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>474</v>
+      </c>
+      <c r="G125" t="s">
+        <v>579</v>
+      </c>
+      <c r="H125" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D126" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E126" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F126" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>475</v>
+      </c>
+      <c r="G126" t="s">
+        <v>498</v>
+      </c>
+      <c r="H126" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F127" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>232</v>
+      </c>
+      <c r="G127" t="s">
+        <v>580</v>
+      </c>
+      <c r="H127" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E128" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F128" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>441</v>
+      </c>
+      <c r="G128" t="s">
+        <v>581</v>
+      </c>
+      <c r="H128" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D129" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E129" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F129" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>476</v>
+      </c>
+      <c r="G129" t="s">
+        <v>582</v>
+      </c>
+      <c r="H129" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E130" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F130" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>477</v>
+      </c>
+      <c r="G130" t="s">
+        <v>583</v>
+      </c>
+      <c r="H130" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E131" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F131" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>406</v>
+      </c>
+      <c r="G131" t="s">
+        <v>584</v>
+      </c>
+      <c r="H131" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D132" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E132" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F132" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>478</v>
+      </c>
+      <c r="G132" t="s">
+        <v>585</v>
+      </c>
+      <c r="H132" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F133" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>307</v>
+      </c>
+      <c r="G133" t="s">
+        <v>498</v>
+      </c>
+      <c r="H133" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C134" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D134" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E134" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F134" t="s">
-        <v>477</v>
+        <v>479</v>
+      </c>
+      <c r="G134" t="s">
+        <v>498</v>
+      </c>
+      <c r="H134" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -2158,8 +2158,10 @@
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="618">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -1063,6 +1063,9 @@
     <t xml:space="preserve">MICH</t>
   </si>
   <si>
+    <t xml:space="preserve">WMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">W Kentucky</t>
   </si>
   <si>
@@ -1105,6 +1108,9 @@
     <t xml:space="preserve">FLA</t>
   </si>
   <si>
+    <t xml:space="preserve">USF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oklahoma St</t>
   </si>
   <si>
@@ -1129,6 +1135,9 @@
     <t xml:space="preserve">ALA</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colorado St</t>
   </si>
   <si>
@@ -1204,6 +1213,9 @@
     <t xml:space="preserve">GAST</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
     <t xml:space="preserve">W Virginia</t>
   </si>
   <si>
@@ -1345,6 +1357,9 @@
     <t xml:space="preserve">UNC</t>
   </si>
   <si>
+    <t xml:space="preserve">NCAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boston Col</t>
   </si>
   <si>
@@ -1573,6 +1588,9 @@
     <t xml:space="preserve">MSST</t>
   </si>
   <si>
+    <t xml:space="preserve">USM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Missouri</t>
   </si>
   <si>
@@ -1588,6 +1606,9 @@
     <t xml:space="preserve">MOST</t>
   </si>
   <si>
+    <t xml:space="preserve">MIZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Florida Intl</t>
   </si>
   <si>
@@ -1639,6 +1660,9 @@
     <t xml:space="preserve">NCSU</t>
   </si>
   <si>
+    <t xml:space="preserve">APP</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX Christian</t>
   </si>
   <si>
@@ -1648,6 +1672,9 @@
     <t xml:space="preserve">ACU</t>
   </si>
   <si>
+    <t xml:space="preserve">TCU</t>
+  </si>
+  <si>
     <t xml:space="preserve">E Carolina</t>
   </si>
   <si>
@@ -1657,6 +1684,9 @@
     <t xml:space="preserve">WCU</t>
   </si>
   <si>
+    <t xml:space="preserve">ECU</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC State</t>
   </si>
   <si>
@@ -1678,9 +1708,6 @@
     <t xml:space="preserve">0.163</t>
   </si>
   <si>
-    <t xml:space="preserve">WMU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kentucky</t>
   </si>
   <si>
@@ -1711,9 +1738,6 @@
     <t xml:space="preserve">GA Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wisconsin</t>
   </si>
   <si>
@@ -1738,6 +1762,9 @@
     <t xml:space="preserve">UTU</t>
   </si>
   <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miami</t>
   </si>
   <si>
@@ -1747,6 +1774,9 @@
     <t xml:space="preserve">ME</t>
   </si>
   <si>
+    <t xml:space="preserve">MIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA Tech</t>
   </si>
   <si>
@@ -1780,6 +1810,9 @@
     <t xml:space="preserve">UCD</t>
   </si>
   <si>
+    <t xml:space="preserve">MASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">S Methodist</t>
   </si>
   <si>
@@ -1792,6 +1825,9 @@
     <t xml:space="preserve">MEM</t>
   </si>
   <si>
+    <t xml:space="preserve">SMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mississippi</t>
   </si>
   <si>
@@ -1801,7 +1837,7 @@
     <t xml:space="preserve">0.169</t>
   </si>
   <si>
-    <t xml:space="preserve">MIZ</t>
+    <t xml:space="preserve">MISS</t>
   </si>
   <si>
     <t xml:space="preserve">California</t>
@@ -1810,18 +1846,12 @@
     <t xml:space="preserve">0.338</t>
   </si>
   <si>
-    <t xml:space="preserve">ECU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memphis</t>
   </si>
   <si>
     <t xml:space="preserve">0.569</t>
   </si>
   <si>
-    <t xml:space="preserve">MIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">TX El Paso</t>
   </si>
   <si>
@@ -1829,6 +1859,9 @@
   </si>
   <si>
     <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTEP</t>
   </si>
   <si>
     <t xml:space="preserve">Miami (OH)</t>
@@ -1931,12 +1964,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1949,23 +1986,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2152,3902 +2172,3886 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="A1:I134"/>
+      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.03"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="H19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="H20" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="H21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="H22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="H23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="H24" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="H25" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="H26" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="H27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="H28" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="H29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="H30" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="H31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="H32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="H33" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="H34" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="H35" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="H36" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="H37" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="H38" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I39" s="0" t="s">
+      <c r="H39" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I40" s="0" t="s">
+      <c r="H40" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I41" s="0" t="s">
+      <c r="H41" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H42" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="H42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H43" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I43" s="0" t="s">
+      <c r="H43" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H44" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I44" s="0" t="s">
+      <c r="H44" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I45" s="0" t="s">
+      <c r="H45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H46" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I46" s="0" t="s">
+      <c r="H46" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I47" s="0" t="s">
+      <c r="H47" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H48" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I48" s="0" t="s">
+      <c r="H48" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H49" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I49" s="0" t="s">
+      <c r="H49" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H50" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="H50" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H51" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I51" s="0" t="s">
+      <c r="H51" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H52" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I52" s="0" t="s">
+      <c r="H52" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H53" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="H53" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I54" s="0" t="s">
+      <c r="H54" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H55" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I55" s="0" t="s">
+      <c r="H55" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H56" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I56" s="0" t="s">
+      <c r="H56" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H57" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I57" s="0" t="s">
+      <c r="H57" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H58" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I58" s="0" t="s">
+      <c r="H58" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H59" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I59" s="0" t="s">
+      <c r="H59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H60" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I60" s="0" t="s">
+      <c r="H60" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H61" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I61" s="0" t="s">
+      <c r="H61" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H62" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="H62" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H63" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I63" s="0" t="s">
+      <c r="H63" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H64" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>15</v>
+      <c r="H64" s="1" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H65" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I65" s="0" t="s">
+      <c r="H65" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H66" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I66" s="0" t="s">
+      <c r="H66" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H67" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I67" s="0" t="s">
+      <c r="H67" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H68" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I68" s="0" t="s">
+      <c r="H68" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>15</v>
+      <c r="I70" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H115" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H116" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H117" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="E71" s="0" t="s">
+      <c r="H119" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F120" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="E122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D124" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H128" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="I128" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H129" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H131" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H133" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G98" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="H106" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="H107" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="H108" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
-        <v>103</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
-        <v>133</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>116</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="H122" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G123" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="G124" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="H126" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="H127" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="H130" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="H131" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="H132" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="H133" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>15</v>
+      <c r="I133" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="D134" s="0" t="s">
+      <c r="B134" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="F134" s="0" t="s">
+      <c r="E134" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G134" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="H134" s="0" t="n">
+      <c r="G134" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H134" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="I134" s="0" t="s">
-        <v>15</v>
+      <c r="I134" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -34,7 +34,7 @@
     <t>OPTpP3</t>
   </si>
   <si>
-    <t>abbr guess</t>
+    <t>abbr</t>
   </si>
   <si>
     <t>confidence</t>
@@ -43,1795 +43,1795 @@
     <t>abbr override</t>
   </si>
   <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
     <t>S Florida</t>
   </si>
   <si>
-    <t>North Texas</t>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
   </si>
   <si>
     <t>Clemson</t>
   </si>
   <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Texas St</t>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
   </si>
   <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
+    <t>Wake Forest</t>
   </si>
   <si>
     <t>Temple</t>
   </si>
   <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
   </si>
   <si>
     <t>Arizona St</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
+    <t>Ball St</t>
   </si>
   <si>
     <t>Akron</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
     <t>E Carolina</t>
   </si>
   <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Rice</t>
+    <t>Michigan St</t>
   </si>
   <si>
     <t>Kent St</t>
   </si>
   <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.490</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.540</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>74.3</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>80.3</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>85.3</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>62.3</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
   </si>
   <si>
     <t>75.7</t>
   </si>
   <si>
-    <t>85.3</t>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>70.7</t>
   </si>
   <si>
     <t>83.7</t>
   </si>
   <si>
-    <t>82.7</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>79.7</t>
-  </si>
-  <si>
-    <t>77.3</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>69.3</t>
-  </si>
-  <si>
-    <t>74.3</t>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>61.3</t>
   </si>
   <si>
     <t>75.3</t>
   </si>
   <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>61.7</t>
-  </si>
-  <si>
-    <t>68.3</t>
-  </si>
-  <si>
     <t>72.3</t>
   </si>
   <si>
-    <t>76.3</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>71.7</t>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>55.3</t>
   </si>
   <si>
     <t>71.3</t>
   </si>
   <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>62.7</t>
-  </si>
-  <si>
-    <t>62.3</t>
-  </si>
-  <si>
-    <t>70.7</t>
-  </si>
-  <si>
-    <t>63.7</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>72.7</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>61.3</t>
+    <t>62.0</t>
   </si>
   <si>
     <t>66.3</t>
   </si>
   <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>73.7</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>65.3</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>54.7</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.440</t>
-  </si>
-  <si>
-    <t>0.490</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>0.540</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.150</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.530</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.360</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.356</t>
   </si>
   <si>
     <t>0.279</t>
   </si>
   <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.696</t>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.297</t>
   </si>
   <si>
     <t>0.389</t>
   </si>
   <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.561</t>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.654</t>
   </si>
   <si>
     <t>0.625</t>
   </si>
   <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
     <t>0.473</t>
   </si>
   <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.571</t>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.341</t>
   </si>
   <si>
     <t>0.584</t>
   </si>
   <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
     <t>0.359</t>
   </si>
   <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
     <t>0.223</t>
   </si>
   <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
     <t>0.465</t>
   </si>
   <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.377</t>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>AFA</t>
   </si>
   <si>
     <t>FLA</t>
   </si>
   <si>
-    <t>UNT</t>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>IDHO</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>EIU</t>
   </si>
   <si>
     <t>CLEM</t>
   </si>
   <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>KSU</t>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
   </si>
   <si>
     <t>CIN</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>MSST</t>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>AKR</t>
   </si>
   <si>
     <t>ECU</t>
   </si>
   <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>OHI</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>RICE</t>
+    <t>MSU</t>
   </si>
   <si>
     <t>KENT</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>MORG</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>WKU</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2238,19 +2238,19 @@
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>481</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
         <v>606</v>
@@ -2267,16 +2267,16 @@
         <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G3" t="s">
-        <v>482</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2296,16 +2296,16 @@
         <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -2325,19 +2325,19 @@
         <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>606</v>
@@ -2354,19 +2354,19 @@
         <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
         <v>606</v>
@@ -2383,19 +2383,19 @@
         <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>606</v>
@@ -2412,19 +2412,19 @@
         <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H8">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>606</v>
@@ -2441,16 +2441,16 @@
         <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2470,16 +2470,16 @@
         <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2499,19 +2499,19 @@
         <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
-        <v>401</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
         <v>606</v>
@@ -2528,16 +2528,16 @@
         <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2554,22 +2554,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
         <v>490</v>
       </c>
       <c r="H13">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
         <v>606</v>
@@ -2583,13 +2583,13 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F14" t="s">
         <v>402</v>
@@ -2598,7 +2598,7 @@
         <v>491</v>
       </c>
       <c r="H14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
         <v>606</v>
@@ -2612,13 +2612,13 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
         <v>403</v>
@@ -2641,13 +2641,13 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F16" t="s">
         <v>404</v>
@@ -2656,7 +2656,7 @@
         <v>493</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
         <v>606</v>
@@ -2673,16 +2673,16 @@
         <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F17" t="s">
         <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -2702,16 +2702,16 @@
         <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -2728,22 +2728,22 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F19" t="s">
         <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
         <v>606</v>
@@ -2757,22 +2757,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F20" t="s">
         <v>407</v>
       </c>
       <c r="G20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H20">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
         <v>606</v>
@@ -2786,19 +2786,19 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F21" t="s">
-        <v>406</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -2815,22 +2815,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>408</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>498</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
         <v>606</v>
@@ -2844,16 +2844,16 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="E23" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F23" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G23" t="s">
         <v>499</v>
@@ -2873,22 +2873,22 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
         <v>500</v>
       </c>
       <c r="H24">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
         <v>606</v>
@@ -2902,22 +2902,22 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E25" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G25" t="s">
         <v>501</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
         <v>606</v>
@@ -2931,22 +2931,22 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G26" t="s">
         <v>502</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
         <v>606</v>
@@ -2960,22 +2960,22 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
         <v>503</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
         <v>606</v>
@@ -2989,22 +2989,22 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G28" t="s">
         <v>504</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
         <v>606</v>
@@ -3018,22 +3018,22 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F29" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G29" t="s">
         <v>505</v>
       </c>
       <c r="H29">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
         <v>606</v>
@@ -3047,22 +3047,22 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G30" t="s">
         <v>506</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
         <v>606</v>
@@ -3076,22 +3076,22 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="E31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G31" t="s">
         <v>507</v>
       </c>
       <c r="H31">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
         <v>606</v>
@@ -3105,16 +3105,16 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G32" t="s">
         <v>508</v>
@@ -3134,16 +3134,16 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="E33" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
+        <v>415</v>
       </c>
       <c r="G33" t="s">
         <v>509</v>
@@ -3163,22 +3163,22 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="E34" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G34" t="s">
         <v>510</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
         <v>606</v>
@@ -3192,22 +3192,22 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="E35" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F35" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
         <v>511</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
         <v>606</v>
@@ -3221,22 +3221,22 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G36" t="s">
         <v>512</v>
       </c>
       <c r="H36">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s">
         <v>606</v>
@@ -3250,22 +3250,22 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F37" t="s">
-        <v>420</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
         <v>513</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
         <v>606</v>
@@ -3279,22 +3279,22 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="E38" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F38" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G38" t="s">
         <v>514</v>
       </c>
       <c r="H38">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
         <v>606</v>
@@ -3308,16 +3308,16 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="G39" t="s">
         <v>515</v>
@@ -3337,22 +3337,22 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F40" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="G40" t="s">
-        <v>516</v>
+        <v>47</v>
       </c>
       <c r="H40">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>606</v>
@@ -3366,22 +3366,22 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
         <v>606</v>
@@ -3395,22 +3395,22 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s">
         <v>606</v>
@@ -3424,19 +3424,19 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H43">
         <v>82</v>
@@ -3453,19 +3453,19 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="F44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3482,22 +3482,22 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="E45" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="F45" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G45" t="s">
-        <v>521</v>
+        <v>52</v>
       </c>
       <c r="H45">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
         <v>606</v>
@@ -3511,22 +3511,22 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="E46" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>426</v>
       </c>
       <c r="G46" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
         <v>606</v>
@@ -3540,22 +3540,22 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E47" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F47" t="s">
-        <v>427</v>
+        <v>169</v>
       </c>
       <c r="G47" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H47">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I47" t="s">
         <v>606</v>
@@ -3569,19 +3569,19 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="E48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3598,22 +3598,22 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H49">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
         <v>606</v>
@@ -3627,22 +3627,22 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I50" t="s">
         <v>606</v>
@@ -3656,22 +3656,22 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s">
         <v>606</v>
@@ -3685,22 +3685,22 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G52" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H52">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
         <v>606</v>
@@ -3714,22 +3714,22 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H53">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I53" t="s">
         <v>606</v>
@@ -3743,22 +3743,22 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="E54" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F54" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="G54" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
         <v>606</v>
@@ -3772,22 +3772,22 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F55" t="s">
-        <v>212</v>
+        <v>433</v>
       </c>
       <c r="G55" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H55">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I55" t="s">
         <v>606</v>
@@ -3801,22 +3801,22 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="E56" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G56" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s">
         <v>606</v>
@@ -3830,22 +3830,22 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="E57" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F57" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H57">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s">
         <v>606</v>
@@ -3859,22 +3859,22 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E58" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
         <v>606</v>
@@ -3888,19 +3888,19 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G59" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -3917,19 +3917,19 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F60" t="s">
-        <v>436</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>536</v>
+        <v>67</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3946,19 +3946,19 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F61" t="s">
-        <v>437</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>534</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -3975,22 +3975,22 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G62" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H62">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I62" t="s">
         <v>606</v>
@@ -4004,22 +4004,22 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
         <v>362</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H63">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I63" t="s">
         <v>606</v>
@@ -4033,22 +4033,22 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>182</v>
       </c>
       <c r="G64" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
         <v>606</v>
@@ -4062,22 +4062,22 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="E65" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>538</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I65" t="s">
         <v>606</v>
@@ -4091,19 +4091,19 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F66" t="s">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="G66" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -4120,22 +4120,22 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="E67" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>440</v>
       </c>
       <c r="G67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s">
         <v>606</v>
@@ -4149,19 +4149,19 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="E68" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="F68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G68" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H68">
         <v>100</v>
@@ -4178,22 +4178,22 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="E69" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="F69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H69">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s">
         <v>606</v>
@@ -4207,19 +4207,19 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E70" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>226</v>
       </c>
       <c r="G70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -4236,22 +4236,22 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E71" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="G71" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H71">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s">
         <v>606</v>
@@ -4265,22 +4265,22 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="E72" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H72">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="I72" t="s">
         <v>606</v>
@@ -4300,16 +4300,16 @@
         <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F73" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="G73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H73">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s">
         <v>606</v>
@@ -4323,22 +4323,22 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="E74" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F74" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="G74" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H74">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>606</v>
@@ -4352,22 +4352,22 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F75" t="s">
-        <v>223</v>
+        <v>435</v>
       </c>
       <c r="G75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H75">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I75" t="s">
         <v>606</v>
@@ -4381,19 +4381,19 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F76" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="G76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -4410,22 +4410,22 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F77" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="G77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I77" t="s">
         <v>606</v>
@@ -4439,19 +4439,19 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E78" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F78" t="s">
-        <v>446</v>
+        <v>221</v>
       </c>
       <c r="G78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -4468,22 +4468,22 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="E79" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s">
         <v>606</v>
@@ -4497,22 +4497,22 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="E80" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="F80" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="G80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H80">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s">
         <v>606</v>
@@ -4526,22 +4526,22 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="F81" t="s">
-        <v>273</v>
+        <v>446</v>
       </c>
       <c r="G81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H81">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I81" t="s">
         <v>606</v>
@@ -4555,22 +4555,22 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="E82" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F82" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="G82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H82">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s">
         <v>606</v>
@@ -4584,22 +4584,22 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D83" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="E83" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F83" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="G83" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H83">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I83" t="s">
         <v>606</v>
@@ -4613,22 +4613,22 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F84" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="G84" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H84">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I84" t="s">
         <v>606</v>
@@ -4642,22 +4642,22 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="F85" t="s">
         <v>448</v>
       </c>
       <c r="G85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H85">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I85" t="s">
         <v>606</v>
@@ -4671,22 +4671,22 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="F86" t="s">
         <v>449</v>
       </c>
       <c r="G86" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H86">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I86" t="s">
         <v>606</v>
@@ -4700,22 +4700,22 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E87" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="F87" t="s">
-        <v>282</v>
+        <v>442</v>
       </c>
       <c r="G87" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H87">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I87" t="s">
         <v>606</v>
@@ -4729,22 +4729,22 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="F88" t="s">
-        <v>234</v>
+        <v>450</v>
       </c>
       <c r="G88" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H88">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
         <v>606</v>
@@ -4758,19 +4758,19 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E89" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F89" t="s">
-        <v>450</v>
+        <v>197</v>
       </c>
       <c r="G89" t="s">
-        <v>563</v>
+        <v>96</v>
       </c>
       <c r="H89">
         <v>100</v>
@@ -4787,19 +4787,19 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F90" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G90" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -4816,22 +4816,22 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D91" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E91" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G91" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H91">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I91" t="s">
         <v>606</v>
@@ -4845,19 +4845,19 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F92" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G92" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H92">
         <v>100</v>
@@ -4874,22 +4874,22 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="E93" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="F93" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="G93" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I93" t="s">
         <v>606</v>
@@ -4903,19 +4903,19 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E94" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="F94" t="s">
         <v>454</v>
       </c>
       <c r="G94" t="s">
-        <v>101</v>
+        <v>566</v>
       </c>
       <c r="H94">
         <v>100</v>
@@ -4932,22 +4932,22 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E95" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F95" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="G95" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H95">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I95" t="s">
         <v>606</v>
@@ -4961,22 +4961,22 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="F96" t="s">
-        <v>455</v>
+        <v>202</v>
       </c>
       <c r="G96" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H96">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="I96" t="s">
         <v>606</v>
@@ -4990,19 +4990,19 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
         <v>291</v>
       </c>
       <c r="E97" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="F97" t="s">
-        <v>314</v>
+        <v>456</v>
       </c>
       <c r="G97" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -5019,22 +5019,22 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="E98" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="F98" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="G98" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H98">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I98" t="s">
         <v>606</v>
@@ -5048,22 +5048,22 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D99" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="F99" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G99" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H99">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I99" t="s">
         <v>606</v>
@@ -5077,22 +5077,22 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E100" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F100" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G100" t="s">
-        <v>573</v>
+        <v>107</v>
       </c>
       <c r="H100">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I100" t="s">
         <v>606</v>
@@ -5106,22 +5106,22 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="E101" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="F101" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="G101" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H101">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s">
         <v>606</v>
@@ -5135,22 +5135,22 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F102" t="s">
-        <v>319</v>
+        <v>460</v>
       </c>
       <c r="G102" t="s">
-        <v>109</v>
+        <v>573</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I102" t="s">
         <v>606</v>
@@ -5164,19 +5164,19 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="E103" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F103" t="s">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="G103" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H103">
         <v>100</v>
@@ -5193,22 +5193,22 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H104">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I104" t="s">
         <v>606</v>
@@ -5222,22 +5222,22 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D105" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E105" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="F105" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G105" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H105">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I105" t="s">
         <v>606</v>
@@ -5251,19 +5251,19 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="D106" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F106" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G106" t="s">
-        <v>113</v>
+        <v>577</v>
       </c>
       <c r="H106">
         <v>100</v>
@@ -5280,16 +5280,16 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F107" t="s">
-        <v>461</v>
+        <v>158</v>
       </c>
       <c r="G107" t="s">
         <v>578</v>
@@ -5309,22 +5309,22 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="E108" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F108" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="G108" t="s">
         <v>579</v>
       </c>
       <c r="H108">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I108" t="s">
         <v>606</v>
@@ -5338,16 +5338,16 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="D109" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="E109" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="F109" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G109" t="s">
         <v>580</v>
@@ -5367,22 +5367,22 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F110" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G110" t="s">
         <v>581</v>
       </c>
       <c r="H110">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I110" t="s">
         <v>606</v>
@@ -5396,22 +5396,22 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F111" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G111" t="s">
         <v>582</v>
       </c>
       <c r="H111">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I111" t="s">
         <v>606</v>
@@ -5425,22 +5425,22 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E112" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="F112" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G112" t="s">
         <v>583</v>
       </c>
       <c r="H112">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I112" t="s">
         <v>606</v>
@@ -5454,22 +5454,22 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="E113" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="F113" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="G113" t="s">
         <v>584</v>
       </c>
       <c r="H113">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I113" t="s">
         <v>606</v>
@@ -5483,22 +5483,22 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="E114" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="G114" t="s">
         <v>585</v>
       </c>
       <c r="H114">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="I114" t="s">
         <v>606</v>
@@ -5512,22 +5512,22 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D115" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E115" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>172</v>
       </c>
       <c r="G115" t="s">
         <v>586</v>
       </c>
       <c r="H115">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I115" t="s">
         <v>606</v>
@@ -5541,22 +5541,22 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E116" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G116" t="s">
         <v>587</v>
       </c>
       <c r="H116">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I116" t="s">
         <v>606</v>
@@ -5570,22 +5570,22 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="D117" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="E117" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="F117" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G117" t="s">
         <v>588</v>
       </c>
       <c r="H117">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I117" t="s">
         <v>606</v>
@@ -5599,22 +5599,22 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E118" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F118" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="G118" t="s">
         <v>589</v>
       </c>
       <c r="H118">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I118" t="s">
         <v>606</v>
@@ -5628,16 +5628,16 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E119" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F119" t="s">
-        <v>471</v>
+        <v>188</v>
       </c>
       <c r="G119" t="s">
         <v>590</v>
@@ -5657,16 +5657,16 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E120" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F120" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G120" t="s">
         <v>591</v>
@@ -5686,22 +5686,22 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="D121" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E121" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F121" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="G121" t="s">
         <v>592</v>
       </c>
       <c r="H121">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I121" t="s">
         <v>606</v>
@@ -5715,16 +5715,16 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E122" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="F122" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="G122" t="s">
         <v>593</v>
@@ -5744,22 +5744,22 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D123" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E123" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="F123" t="s">
-        <v>304</v>
+        <v>472</v>
       </c>
       <c r="G123" t="s">
         <v>594</v>
       </c>
       <c r="H123">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I123" t="s">
         <v>606</v>
@@ -5773,16 +5773,16 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="D124" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="E124" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="F124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G124" t="s">
         <v>595</v>
@@ -5802,22 +5802,22 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E125" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F125" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G125" t="s">
         <v>596</v>
       </c>
       <c r="H125">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I125" t="s">
         <v>606</v>
@@ -5831,16 +5831,16 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="D126" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E126" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F126" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G126" t="s">
         <v>597</v>
@@ -5860,22 +5860,22 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="D127" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="E127" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F127" t="s">
-        <v>233</v>
+        <v>476</v>
       </c>
       <c r="G127" t="s">
         <v>598</v>
       </c>
       <c r="H127">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I127" t="s">
         <v>606</v>
@@ -5889,22 +5889,22 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="E128" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F128" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="G128" t="s">
         <v>599</v>
       </c>
       <c r="H128">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I128" t="s">
         <v>606</v>
@@ -5918,13 +5918,13 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="D129" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="E129" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F129" t="s">
         <v>477</v>
@@ -5933,7 +5933,7 @@
         <v>600</v>
       </c>
       <c r="H129">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I129" t="s">
         <v>606</v>
@@ -5947,22 +5947,22 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="D130" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E130" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F130" t="s">
-        <v>478</v>
+        <v>230</v>
       </c>
       <c r="G130" t="s">
         <v>601</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I130" t="s">
         <v>606</v>
@@ -5976,22 +5976,22 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="E131" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="F131" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="G131" t="s">
         <v>602</v>
       </c>
       <c r="H131">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I131" t="s">
         <v>606</v>
@@ -6005,13 +6005,13 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="E132" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F132" t="s">
         <v>479</v>
@@ -6020,7 +6020,7 @@
         <v>603</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I132" t="s">
         <v>606</v>
@@ -6034,22 +6034,22 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E133" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F133" t="s">
-        <v>308</v>
+        <v>480</v>
       </c>
       <c r="G133" t="s">
         <v>604</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I133" t="s">
         <v>606</v>
@@ -6063,22 +6063,22 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="D134" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E134" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F134" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G134" t="s">
         <v>605</v>
       </c>
       <c r="H134">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I134" t="s">
         <v>606</v>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -40,1132 +40,1519 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Oregon</t>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
   </si>
   <si>
     <t>Notre Dame</t>
   </si>
   <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Kansas</t>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Kent St</t>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>AKR</t>
   </si>
   <si>
     <t>ORE</t>
   </si>
   <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>MEM</t>
+    <t>EMU</t>
   </si>
   <si>
     <t>KU</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
     <t>SJSU</t>
   </si>
   <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>UVA</t>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>WYO</t>
   </si>
   <si>
     <t>ISU</t>
   </si>
   <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>WYO</t>
+    <t>PITT</t>
   </si>
   <si>
     <t>M-OH</t>
   </si>
   <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>IDHO</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>KENT</t>
+    <t>EKU</t>
+  </si>
+  <si>
+    <t>75.7</t>
+  </si>
+  <si>
+    <t>85.3</t>
+  </si>
+  <si>
+    <t>83.7</t>
+  </si>
+  <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>74.3</t>
+  </si>
+  <si>
+    <t>75.3</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>72.3</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>80.3</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>62.3</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>55.3</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>61.3</t>
+  </si>
+  <si>
+    <t>66.3</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>0.490</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.540</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.192</t>
   </si>
   <si>
     <t>0.751</t>
   </si>
   <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.554</t>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.225</t>
   </si>
   <si>
     <t>0.719</t>
   </si>
   <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
     <t>0.475</t>
   </si>
   <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.490</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.702</t>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.326</t>
   </si>
   <si>
     <t>0.530</t>
   </si>
   <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.540</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.440</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.150</t>
-  </si>
-  <si>
-    <t>0.257</t>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>47.3</t>
   </si>
   <si>
     <t>25.0</t>
   </si>
   <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>15.7</t>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>42.0</t>
   </si>
   <si>
     <t>12.7</t>
@@ -1174,661 +1561,274 @@
     <t>11.0</t>
   </si>
   <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>61.7</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>65.3</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>73.7</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>54.7</t>
-  </si>
-  <si>
-    <t>69.3</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>79.7</t>
-  </si>
-  <si>
-    <t>74.3</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>63.7</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>62.7</t>
-  </si>
-  <si>
-    <t>77.3</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>76.3</t>
-  </si>
-  <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>71.7</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>85.3</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>62.3</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>68.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>75.7</t>
-  </si>
-  <si>
-    <t>72.7</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>82.7</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>70.7</t>
-  </si>
-  <si>
-    <t>83.7</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>61.3</t>
-  </si>
-  <si>
-    <t>75.3</t>
-  </si>
-  <si>
-    <t>72.3</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>71.3</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>66.3</t>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.360</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.356</t>
   </si>
   <si>
     <t>0.474</t>
   </si>
   <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
     <t>0.205</t>
   </si>
   <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
     <t>0.163</t>
   </si>
   <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.426</t>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.343</t>
   </si>
   <si>
     <t>0.377</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.465</t>
   </si>
 </sst>
 </file>
@@ -2226,22 +2226,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2252,19 +2252,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2278,19 +2278,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -2304,22 +2304,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
         <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2330,22 +2330,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
         <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2356,22 +2356,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2382,22 +2382,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2408,19 +2408,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2434,19 +2434,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
         <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2460,22 +2460,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>525</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2486,19 +2486,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2515,19 +2515,19 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G13" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2541,19 +2541,19 @@
         <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
         <v>526</v>
       </c>
       <c r="H14">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2567,13 +2567,13 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G15" t="s">
         <v>527</v>
@@ -2593,19 +2593,19 @@
         <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="F16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G16" t="s">
         <v>528</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2616,16 +2616,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G17" t="s">
         <v>529</v>
@@ -2642,19 +2642,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
         <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G18" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -2668,22 +2668,22 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="F19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G19" t="s">
         <v>530</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2694,22 +2694,22 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2720,19 +2720,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="F21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G21" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -2749,19 +2749,19 @@
         <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H22">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2775,19 +2775,19 @@
         <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G23" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2801,19 +2801,19 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G24" t="s">
-        <v>294</v>
+        <v>533</v>
       </c>
       <c r="H24">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2827,19 +2827,19 @@
         <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E25" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2853,16 +2853,16 @@
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2879,19 +2879,19 @@
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="F27" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2905,19 +2905,19 @@
         <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="F28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H28">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2931,19 +2931,19 @@
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="F29" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G29" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H29">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2957,19 +2957,19 @@
         <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="F30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H30">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2983,19 +2983,19 @@
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="F31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3009,16 +3009,16 @@
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="F32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -3035,16 +3035,16 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G33" t="s">
-        <v>539</v>
+        <v>350</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -3061,19 +3061,19 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E34" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="F34" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G34" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H34">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3087,19 +3087,19 @@
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="F35" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G35" t="s">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="H35">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3113,19 +3113,19 @@
         <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="F36" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G36" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H36">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3139,19 +3139,19 @@
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>544</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3165,19 +3165,19 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="F38" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G38" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H38">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3191,16 +3191,16 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G39" t="s">
-        <v>543</v>
+        <v>424</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -3214,22 +3214,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="F40" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G40" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3240,22 +3240,22 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E41" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="G41" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H41">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3266,22 +3266,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E42" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="F42" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G42" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3292,22 +3292,22 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="F43" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G43" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H43">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3318,19 +3318,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E44" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="F44" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="G44" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3344,22 +3344,22 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E45" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="F45" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H45">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3370,22 +3370,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="F46" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G46" t="s">
-        <v>550</v>
+        <v>361</v>
       </c>
       <c r="H46">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3396,22 +3396,22 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E47" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F47" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3422,19 +3422,19 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E48" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="F48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G48" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3448,22 +3448,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E49" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3474,22 +3474,22 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E50" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H50">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3500,22 +3500,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="F51" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="H51">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3526,22 +3526,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E52" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F52" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G52" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H52">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3552,22 +3552,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="F53" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3578,22 +3578,22 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="F54" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="H54">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3604,22 +3604,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E55" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="F55" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>557</v>
+        <v>336</v>
       </c>
       <c r="H55">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3630,22 +3630,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H56">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3656,22 +3656,22 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="F57" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G57" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H57">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3682,22 +3682,22 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E58" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="F58" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="G58" t="s">
-        <v>301</v>
+        <v>558</v>
       </c>
       <c r="H58">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3708,19 +3708,19 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G59" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -3734,19 +3734,19 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>560</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3760,19 +3760,19 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="F61" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="G61" t="s">
-        <v>364</v>
+        <v>561</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -3786,22 +3786,22 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G62" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H62">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3812,22 +3812,22 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="E63" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="F63" t="s">
         <v>486</v>
       </c>
       <c r="G63" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H63">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3838,22 +3838,22 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F64" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="G64" t="s">
-        <v>306</v>
+        <v>564</v>
       </c>
       <c r="H64">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3864,22 +3864,22 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G65" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="H65">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3890,19 +3890,19 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E66" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="G66" t="s">
-        <v>563</v>
+        <v>445</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -3916,22 +3916,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F67" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G67" t="s">
-        <v>564</v>
+        <v>365</v>
       </c>
       <c r="H67">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3942,19 +3942,19 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="F68" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="G68" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H68">
         <v>100</v>
@@ -3968,22 +3968,22 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="F69" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H69">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3994,19 +3994,19 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F70" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -4020,22 +4020,22 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E71" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G71" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="H71">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4046,22 +4046,22 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="F72" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G72" t="s">
-        <v>357</v>
+        <v>568</v>
       </c>
       <c r="H72">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4072,7 +4072,7 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
         <v>295</v>
@@ -4081,13 +4081,13 @@
         <v>400</v>
       </c>
       <c r="F73" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G73" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="H73">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4098,22 +4098,22 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="E74" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G74" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4124,22 +4124,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G75" t="s">
-        <v>559</v>
+        <v>347</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4150,19 +4150,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="F76" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -4176,22 +4176,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="E77" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="G77" t="s">
-        <v>569</v>
+        <v>346</v>
       </c>
       <c r="H77">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4202,19 +4202,19 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="F78" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G78" t="s">
-        <v>345</v>
+        <v>570</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -4228,22 +4228,22 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="F79" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
       <c r="H79">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4254,22 +4254,22 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="F80" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G80" t="s">
-        <v>538</v>
+        <v>397</v>
       </c>
       <c r="H80">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4280,22 +4280,22 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="E81" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="F81" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="G81" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H81">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4306,22 +4306,22 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D82" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="F82" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="H82">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4332,22 +4332,22 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="E83" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="F83" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G83" t="s">
-        <v>571</v>
+        <v>424</v>
       </c>
       <c r="H83">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4358,22 +4358,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F84" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G84" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4384,22 +4384,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="E85" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="F85" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G85" t="s">
         <v>572</v>
       </c>
       <c r="H85">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4410,22 +4410,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>438</v>
+        <v>336</v>
       </c>
       <c r="F86" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G86" t="s">
         <v>573</v>
       </c>
       <c r="H86">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4436,22 +4436,22 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F87" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="G87" t="s">
-        <v>566</v>
+        <v>406</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4462,22 +4462,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="E88" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="G88" t="s">
-        <v>574</v>
+        <v>358</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4488,19 +4488,19 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F89" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G89" t="s">
-        <v>321</v>
+        <v>574</v>
       </c>
       <c r="H89">
         <v>100</v>
@@ -4514,19 +4514,19 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="G90" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -4540,22 +4540,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="F91" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G91" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H91">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4566,19 +4566,19 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D92" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="F92" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G92" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H92">
         <v>100</v>
@@ -4592,22 +4592,22 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D93" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="F93" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="G93" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="H93">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4618,16 +4618,16 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F94" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="G94" t="s">
         <v>578</v>
@@ -4644,22 +4644,22 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D95" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F95" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="G95" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="H95">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4670,22 +4670,22 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="E96" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="F96" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>579</v>
       </c>
       <c r="H96">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4696,19 +4696,19 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
         <v>415</v>
       </c>
       <c r="F97" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="G97" t="s">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -4722,22 +4722,22 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E98" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="F98" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="G98" t="s">
-        <v>581</v>
+        <v>410</v>
       </c>
       <c r="H98">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4748,22 +4748,22 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="F99" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="G99" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H99">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4774,22 +4774,22 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="D100" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E100" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="F100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G100" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4800,22 +4800,22 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E101" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="F101" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="G101" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="H101">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4826,22 +4826,22 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="E102" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F102" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G102" t="s">
-        <v>584</v>
+        <v>443</v>
       </c>
       <c r="H102">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4852,19 +4852,19 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E103" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="F103" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="G103" t="s">
-        <v>585</v>
+        <v>363</v>
       </c>
       <c r="H103">
         <v>100</v>
@@ -4878,22 +4878,22 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="F104" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G104" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H104">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4904,22 +4904,22 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E105" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F105" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="G105" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H105">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4930,19 +4930,19 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E106" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="F106" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G106" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H106">
         <v>100</v>
@@ -4959,16 +4959,16 @@
         <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F107" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G107" t="s">
-        <v>282</v>
+        <v>585</v>
       </c>
       <c r="H107">
         <v>100</v>
@@ -4985,19 +4985,19 @@
         <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="F108" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G108" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="H108">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5011,16 +5011,16 @@
         <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="E109" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="G109" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H109">
         <v>100</v>
@@ -5037,19 +5037,19 @@
         <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="F110" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="G110" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H110">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5063,19 +5063,19 @@
         <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="E111" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G111" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="H111">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5089,19 +5089,19 @@
         <v>243</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="E112" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F112" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G112" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H112">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5115,19 +5115,19 @@
         <v>244</v>
       </c>
       <c r="D113" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F113" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="G113" t="s">
-        <v>288</v>
+        <v>590</v>
       </c>
       <c r="H113">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5141,19 +5141,19 @@
         <v>245</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="E114" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="F114" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="G114" t="s">
-        <v>344</v>
+        <v>591</v>
       </c>
       <c r="H114">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5167,19 +5167,19 @@
         <v>246</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F115" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G115" t="s">
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="H115">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5193,19 +5193,19 @@
         <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F116" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G116" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="H116">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5219,19 +5219,19 @@
         <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="E117" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F117" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="G117" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H117">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5245,19 +5245,19 @@
         <v>249</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="E118" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F118" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="G118" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
       <c r="H118">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5271,16 +5271,16 @@
         <v>250</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="E119" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F119" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="G119" t="s">
-        <v>312</v>
+        <v>595</v>
       </c>
       <c r="H119">
         <v>100</v>
@@ -5297,16 +5297,16 @@
         <v>251</v>
       </c>
       <c r="D120" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="E120" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F120" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="G120" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H120">
         <v>100</v>
@@ -5323,19 +5323,19 @@
         <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="E121" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F121" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="G121" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="H121">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5349,16 +5349,16 @@
         <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="E122" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F122" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="G122" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="H122">
         <v>100</v>
@@ -5375,19 +5375,19 @@
         <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F123" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="G123" t="s">
-        <v>596</v>
+        <v>428</v>
       </c>
       <c r="H123">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5401,16 +5401,16 @@
         <v>255</v>
       </c>
       <c r="D124" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="E124" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F124" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="G124" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H124">
         <v>100</v>
@@ -5427,19 +5427,19 @@
         <v>256</v>
       </c>
       <c r="D125" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="E125" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F125" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G125" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H125">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5453,19 +5453,19 @@
         <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="E126" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F126" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G126" t="s">
-        <v>599</v>
+        <v>357</v>
       </c>
       <c r="H126">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5479,13 +5479,13 @@
         <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="E127" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="F127" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G127" t="s">
         <v>600</v>
@@ -5505,19 +5505,19 @@
         <v>259</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>281</v>
       </c>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="F128" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G128" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="H128">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5531,19 +5531,19 @@
         <v>260</v>
       </c>
       <c r="D129" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="E129" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="F129" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="G129" t="s">
         <v>601</v>
       </c>
       <c r="H129">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5557,19 +5557,19 @@
         <v>261</v>
       </c>
       <c r="D130" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E130" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F130" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="G130" t="s">
-        <v>354</v>
+        <v>602</v>
       </c>
       <c r="H130">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5583,19 +5583,19 @@
         <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="F131" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="G131" t="s">
-        <v>602</v>
+        <v>532</v>
       </c>
       <c r="H131">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5609,19 +5609,19 @@
         <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="F132" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G132" t="s">
         <v>603</v>
       </c>
       <c r="H132">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5635,19 +5635,19 @@
         <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="E133" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F133" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="G133" t="s">
-        <v>604</v>
+        <v>432</v>
       </c>
       <c r="H133">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5661,19 +5661,19 @@
         <v>265</v>
       </c>
       <c r="D134" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F134" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G134" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="H134">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -49,12 +49,12 @@
     <t>Clemson</t>
   </si>
   <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
     <t>Jksnville St</t>
   </si>
   <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
     <t>N Carolina</t>
   </si>
   <si>
@@ -94,18 +94,18 @@
     <t>Virginia</t>
   </si>
   <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
     <t>App State</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>UCF</t>
   </si>
   <si>
+    <t>Missouri</t>
+  </si>
+  <si>
     <t>James Mad</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>Northwestern</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>Miami</t>
   </si>
   <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
     <t>Fla Atlantic</t>
   </si>
   <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
     <t>GA Tech</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>Oregon</t>
   </si>
   <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
     <t>TX El Paso</t>
   </si>
   <si>
@@ -316,18 +316,18 @@
     <t>Houston</t>
   </si>
   <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>USC</t>
   </si>
   <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
     <t>San Diego St</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>Navy</t>
   </si>
   <si>
+    <t>Miss State</t>
+  </si>
+  <si>
     <t>U Mass</t>
   </si>
   <si>
-    <t>Miss State</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -448,12 +448,12 @@
     <t>CLEM</t>
   </si>
   <si>
+    <t>HCU</t>
+  </si>
+  <si>
     <t>JVST</t>
   </si>
   <si>
-    <t>ACU</t>
-  </si>
-  <si>
     <t>UNC</t>
   </si>
   <si>
@@ -487,15 +487,15 @@
     <t>UVA</t>
   </si>
   <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
     <t>COLO</t>
   </si>
   <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
     <t>NCSU</t>
   </si>
   <si>
@@ -562,7 +562,7 @@
     <t>ASU</t>
   </si>
   <si>
-    <t>UNH</t>
+    <t>MIA</t>
   </si>
   <si>
     <t>UK</t>
@@ -607,12 +607,12 @@
     <t>UGA</t>
   </si>
   <si>
+    <t>MOST</t>
+  </si>
+  <si>
     <t>JMU</t>
   </si>
   <si>
-    <t>MOST</t>
-  </si>
-  <si>
     <t>NU</t>
   </si>
   <si>
@@ -631,15 +631,15 @@
     <t>OHIO</t>
   </si>
   <si>
-    <t>MIA</t>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>FIU</t>
   </si>
   <si>
     <t>FAU</t>
   </si>
   <si>
-    <t>FIU</t>
-  </si>
-  <si>
     <t>GT</t>
   </si>
   <si>
@@ -658,12 +658,12 @@
     <t>ORE</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>IU</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>MD</t>
   </si>
   <si>
-    <t>NORF</t>
+    <t>ISU</t>
   </si>
   <si>
     <t>BALL</t>
@@ -757,10 +757,10 @@
     <t>NAVY</t>
   </si>
   <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>MUR</t>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>NEB</t>
@@ -802,13 +802,13 @@
     <t>WYO</t>
   </si>
   <si>
-    <t>ISU</t>
+    <t>IDST</t>
   </si>
   <si>
     <t>PITT</t>
   </si>
   <si>
-    <t>M-OH</t>
+    <t>ME</t>
   </si>
   <si>
     <t>EKU</t>
@@ -823,12 +823,12 @@
     <t>83.7</t>
   </si>
   <si>
+    <t>73.0</t>
+  </si>
+  <si>
     <t>82.7</t>
   </si>
   <si>
-    <t>73.0</t>
-  </si>
-  <si>
     <t>69.7</t>
   </si>
   <si>
@@ -862,18 +862,18 @@
     <t>70.3</t>
   </si>
   <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>72.3</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
     <t>61.7</t>
   </si>
   <si>
-    <t>68.3</t>
-  </si>
-  <si>
-    <t>72.3</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
     <t>76.3</t>
   </si>
   <si>
@@ -1021,12 +1021,12 @@
     <t>0.339</t>
   </si>
   <si>
+    <t>0.516</t>
+  </si>
+  <si>
     <t>0.431</t>
   </si>
   <si>
-    <t>0.516</t>
-  </si>
-  <si>
     <t>0.239</t>
   </si>
   <si>
@@ -1066,15 +1066,15 @@
     <t>0.314</t>
   </si>
   <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
     <t>0.335</t>
   </si>
   <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
     <t>0.397</t>
   </si>
   <si>
@@ -1183,12 +1183,12 @@
     <t>0.312</t>
   </si>
   <si>
+    <t>0.455</t>
+  </si>
+  <si>
     <t>0.481</t>
   </si>
   <si>
-    <t>0.455</t>
-  </si>
-  <si>
     <t>0.394</t>
   </si>
   <si>
@@ -1213,12 +1213,12 @@
     <t>0.483</t>
   </si>
   <si>
+    <t>0.255</t>
+  </si>
+  <si>
     <t>0.196</t>
   </si>
   <si>
-    <t>0.255</t>
-  </si>
-  <si>
     <t>0.404</t>
   </si>
   <si>
@@ -1306,12 +1306,12 @@
     <t>0.172</t>
   </si>
   <si>
+    <t>0.287</t>
+  </si>
+  <si>
     <t>0.358</t>
   </si>
   <si>
-    <t>0.287</t>
-  </si>
-  <si>
     <t>0.197</t>
   </si>
   <si>
@@ -1471,12 +1471,12 @@
     <t>17.7</t>
   </si>
   <si>
+    <t>16.0</t>
+  </si>
+  <si>
     <t>23.7</t>
   </si>
   <si>
-    <t>16.0</t>
-  </si>
-  <si>
     <t>43.3</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>29.7</t>
   </si>
   <si>
+    <t>41.7</t>
+  </si>
+  <si>
     <t>23.3</t>
   </si>
   <si>
-    <t>41.7</t>
-  </si>
-  <si>
     <t>40.0</t>
   </si>
   <si>
@@ -1528,12 +1528,12 @@
     <t>34.7</t>
   </si>
   <si>
+    <t>15.3</t>
+  </si>
+  <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>15.3</t>
-  </si>
-  <si>
     <t>21.3</t>
   </si>
   <si>
@@ -1573,12 +1573,12 @@
     <t>0.525</t>
   </si>
   <si>
+    <t>0.507</t>
+  </si>
+  <si>
     <t>0.309</t>
   </si>
   <si>
-    <t>0.507</t>
-  </si>
-  <si>
     <t>0.459</t>
   </si>
   <si>
@@ -1702,12 +1702,12 @@
     <t>0.362</t>
   </si>
   <si>
+    <t>0.244</t>
+  </si>
+  <si>
     <t>0.360</t>
   </si>
   <si>
-    <t>0.244</t>
-  </si>
-  <si>
     <t>0.297</t>
   </si>
   <si>
@@ -1720,12 +1720,12 @@
     <t>0.316</t>
   </si>
   <si>
+    <t>0.563</t>
+  </si>
+  <si>
     <t>0.324</t>
   </si>
   <si>
-    <t>0.563</t>
-  </si>
-  <si>
     <t>0.359</t>
   </si>
   <si>
@@ -1750,12 +1750,12 @@
     <t>0.356</t>
   </si>
   <si>
+    <t>0.223</t>
+  </si>
+  <si>
     <t>0.474</t>
   </si>
   <si>
-    <t>0.223</t>
-  </si>
-  <si>
     <t>0.355</t>
   </si>
   <si>
@@ -1795,10 +1795,10 @@
     <t>0.402</t>
   </si>
   <si>
+    <t>0.421</t>
+  </si>
+  <si>
     <t>0.443</t>
-  </si>
-  <si>
-    <t>0.421</t>
   </si>
   <si>
     <t>0.612</t>
@@ -2313,13 +2313,13 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
         <v>519</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2339,13 +2339,13 @@
         <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G6" t="s">
         <v>520</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>456</v>
       </c>
       <c r="G12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2694,19 +2694,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G20" t="s">
-        <v>530</v>
+        <v>336</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -2720,19 +2720,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
         <v>283</v>
       </c>
       <c r="E21" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G21" t="s">
-        <v>335</v>
+        <v>531</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -2755,13 +2755,13 @@
         <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G22" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2781,13 +2781,13 @@
         <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2827,7 +2827,7 @@
         <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
         <v>354</v>
@@ -2853,7 +2853,7 @@
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s">
         <v>355</v>
@@ -3044,7 +3044,7 @@
         <v>473</v>
       </c>
       <c r="G33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -3168,7 +3168,7 @@
         <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F38" t="s">
         <v>449</v>
@@ -3590,7 +3590,7 @@
         <v>471</v>
       </c>
       <c r="G54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -3616,7 +3616,7 @@
         <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H55">
         <v>81</v>
@@ -3789,7 +3789,7 @@
         <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
         <v>389</v>
@@ -3801,7 +3801,7 @@
         <v>562</v>
       </c>
       <c r="H62">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3815,7 +3815,7 @@
         <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
         <v>390</v>
@@ -3827,7 +3827,7 @@
         <v>563</v>
       </c>
       <c r="H63">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4035,7 +4035,7 @@
         <v>539</v>
       </c>
       <c r="H71">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4049,7 +4049,7 @@
         <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
         <v>399</v>
@@ -4061,7 +4061,7 @@
         <v>568</v>
       </c>
       <c r="H72">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4075,7 +4075,7 @@
         <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E73" t="s">
         <v>400</v>
@@ -4087,7 +4087,7 @@
         <v>569</v>
       </c>
       <c r="H73">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4107,7 +4107,7 @@
         <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G74" t="s">
         <v>424</v>
@@ -4257,19 +4257,19 @@
         <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="E80" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F80" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="G80" t="s">
-        <v>397</v>
+        <v>571</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4283,19 +4283,19 @@
         <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F81" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="G81" t="s">
-        <v>571</v>
+        <v>397</v>
       </c>
       <c r="H81">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4416,7 +4416,7 @@
         <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F86" t="s">
         <v>450</v>
@@ -4572,7 +4572,7 @@
         <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F92" t="s">
         <v>475</v>
@@ -4618,22 +4618,22 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F94" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G94" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="H94">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4644,22 +4644,22 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="E95" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="F95" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G95" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="H95">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4670,22 +4670,22 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D96" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="E96" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F96" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="G96" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="H96">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4696,19 +4696,19 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E97" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F97" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="G97" t="s">
-        <v>438</v>
+        <v>579</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -5121,7 +5121,7 @@
         <v>427</v>
       </c>
       <c r="F113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G113" t="s">
         <v>590</v>
@@ -5193,19 +5193,19 @@
         <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
         <v>430</v>
       </c>
       <c r="F116" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G116" t="s">
         <v>593</v>
       </c>
       <c r="H116">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5219,19 +5219,19 @@
         <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E117" t="s">
         <v>431</v>
       </c>
       <c r="F117" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G117" t="s">
         <v>594</v>
       </c>
       <c r="H117">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5453,7 +5453,7 @@
         <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s">
         <v>440</v>
@@ -5537,7 +5537,7 @@
         <v>442</v>
       </c>
       <c r="F129" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G129" t="s">
         <v>601</v>
@@ -5595,7 +5595,7 @@
         <v>532</v>
       </c>
       <c r="H131">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5647,7 +5647,7 @@
         <v>432</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:8">

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -40,1795 +40,1795 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
     <t>S Florida</t>
   </si>
   <si>
-    <t>North Texas</t>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
   </si>
   <si>
     <t>Clemson</t>
   </si>
   <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Texas St</t>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
   </si>
   <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
+    <t>Wake Forest</t>
   </si>
   <si>
     <t>Temple</t>
   </si>
   <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
   </si>
   <si>
     <t>Arizona St</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
+    <t>Ball St</t>
   </si>
   <si>
     <t>Akron</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
     <t>E Carolina</t>
   </si>
   <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Rice</t>
+    <t>Michigan St</t>
   </si>
   <si>
     <t>Kent St</t>
   </si>
   <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>HCU</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>TULN</t>
   </si>
   <si>
     <t>FLA</t>
   </si>
   <si>
-    <t>UNT</t>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>EIU</t>
   </si>
   <si>
     <t>CLEM</t>
   </si>
   <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>KSU</t>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
   </si>
   <si>
     <t>CIN</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>MTSU</t>
+    <t>WAKE</t>
   </si>
   <si>
     <t>TEM</t>
   </si>
   <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>ARK</t>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>CLT</t>
   </si>
   <si>
     <t>ASU</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>HAW</t>
+    <t>FVS</t>
   </si>
   <si>
     <t>AKR</t>
   </si>
   <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
     <t>ECU</t>
   </si>
   <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>RICE</t>
+    <t>MSU</t>
   </si>
   <si>
     <t>KENT</t>
   </si>
   <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>TNST</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>IDST</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>EKU</t>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.490</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.540</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>74.3</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>80.3</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>85.3</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>62.3</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
   </si>
   <si>
     <t>75.7</t>
   </si>
   <si>
-    <t>85.3</t>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>70.7</t>
   </si>
   <si>
     <t>83.7</t>
   </si>
   <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>82.7</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>79.7</t>
-  </si>
-  <si>
-    <t>77.3</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>69.3</t>
-  </si>
-  <si>
-    <t>74.3</t>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>61.3</t>
   </si>
   <si>
     <t>75.3</t>
   </si>
   <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>68.3</t>
-  </si>
-  <si>
     <t>72.3</t>
   </si>
   <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>61.7</t>
-  </si>
-  <si>
-    <t>76.3</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>71.7</t>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>55.3</t>
   </si>
   <si>
     <t>71.3</t>
   </si>
   <si>
-    <t>62.7</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>62.3</t>
-  </si>
-  <si>
-    <t>70.7</t>
-  </si>
-  <si>
-    <t>63.7</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>72.7</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>61.3</t>
+    <t>62.0</t>
   </si>
   <si>
     <t>66.3</t>
   </si>
   <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>73.7</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>65.3</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>54.7</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.440</t>
-  </si>
-  <si>
-    <t>0.490</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>0.540</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.150</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.530</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.360</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.356</t>
   </si>
   <si>
     <t>0.279</t>
   </si>
   <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.696</t>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.297</t>
   </si>
   <si>
     <t>0.389</t>
   </si>
   <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.561</t>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.654</t>
   </si>
   <si>
     <t>0.625</t>
   </si>
   <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
     <t>0.473</t>
   </si>
   <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.571</t>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.341</t>
   </si>
   <si>
     <t>0.584</t>
   </si>
   <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
     <t>0.359</t>
   </si>
   <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
     <t>0.223</t>
   </si>
   <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
     <t>0.465</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.377</t>
   </si>
 </sst>
 </file>
@@ -2226,22 +2226,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G2" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="H2">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2252,19 +2252,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2278,19 +2278,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
         <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G4" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -2304,22 +2304,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
         <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H5">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2330,22 +2330,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
         <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2356,22 +2356,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
         <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2382,22 +2382,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
         <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H8">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2408,19 +2408,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
         <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2434,19 +2434,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
         <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2460,22 +2460,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
         <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G11" t="s">
-        <v>525</v>
+        <v>345</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2486,19 +2486,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
         <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G12" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2515,19 +2515,19 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G13" t="s">
-        <v>444</v>
+        <v>525</v>
       </c>
       <c r="H13">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2541,19 +2541,19 @@
         <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G14" t="s">
         <v>526</v>
       </c>
       <c r="H14">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2567,13 +2567,13 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G15" t="s">
         <v>527</v>
@@ -2593,19 +2593,19 @@
         <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G16" t="s">
         <v>528</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2616,16 +2616,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G17" t="s">
         <v>529</v>
@@ -2642,19 +2642,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
         <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G18" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -2668,22 +2668,22 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G19" t="s">
         <v>530</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2694,22 +2694,22 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>531</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2723,16 +2723,16 @@
         <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G21" t="s">
-        <v>531</v>
+        <v>315</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -2749,19 +2749,19 @@
         <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G22" t="s">
         <v>532</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2775,16 +2775,16 @@
         <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="F23" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G23" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -2801,19 +2801,19 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G24" t="s">
-        <v>533</v>
+        <v>294</v>
       </c>
       <c r="H24">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2827,19 +2827,19 @@
         <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="F25" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="G25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2853,16 +2853,16 @@
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2879,19 +2879,19 @@
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="F27" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G27" t="s">
-        <v>428</v>
+        <v>312</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2905,19 +2905,19 @@
         <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="F28" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2931,19 +2931,19 @@
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F29" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="G29" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H29">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2957,19 +2957,19 @@
         <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="F30" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2983,19 +2983,19 @@
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H31">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3009,16 +3009,16 @@
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -3035,16 +3035,16 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E33" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="F33" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G33" t="s">
-        <v>352</v>
+        <v>539</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -3061,19 +3061,19 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="F34" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3087,19 +3087,19 @@
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="F35" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G35" t="s">
-        <v>542</v>
+        <v>292</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3113,19 +3113,19 @@
         <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="F36" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G36" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H36">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3139,19 +3139,19 @@
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="F37" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G37" t="s">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="H37">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3165,19 +3165,19 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="F38" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="G38" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3191,16 +3191,16 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="F39" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="G39" t="s">
-        <v>424</v>
+        <v>543</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -3214,22 +3214,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="F40" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G40" t="s">
-        <v>341</v>
+        <v>544</v>
       </c>
       <c r="H40">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3240,22 +3240,22 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E41" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="G41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3266,22 +3266,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E42" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H42">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3292,22 +3292,22 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="E43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="F43" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3318,19 +3318,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="E44" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="F44" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="G44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3344,22 +3344,22 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="F45" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="G45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H45">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3370,22 +3370,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="F46" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G46" t="s">
-        <v>361</v>
+        <v>550</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3396,22 +3396,22 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F47" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G47" t="s">
-        <v>551</v>
+        <v>293</v>
       </c>
       <c r="H47">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3422,19 +3422,19 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E48" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="F48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3448,22 +3448,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E49" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="F49" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="G49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H49">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3474,19 +3474,19 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E50" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="F50" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G50" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -3500,22 +3500,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="E51" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="F51" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G51" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3526,22 +3526,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E52" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G52" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H52">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3552,22 +3552,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="G53" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H53">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3578,22 +3578,22 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="F54" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="G54" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3604,22 +3604,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="F55" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G55" t="s">
-        <v>335</v>
+        <v>557</v>
       </c>
       <c r="H55">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3630,22 +3630,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G56" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3656,22 +3656,22 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E57" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="F57" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G57" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H57">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3682,22 +3682,22 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>558</v>
+        <v>301</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3708,19 +3708,19 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G59" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -3734,19 +3734,19 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G60" t="s">
-        <v>560</v>
+        <v>295</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3760,19 +3760,19 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="G61" t="s">
-        <v>561</v>
+        <v>364</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -3786,22 +3786,22 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="G62" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H62">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3812,22 +3812,22 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="F63" t="s">
         <v>486</v>
       </c>
       <c r="G63" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H63">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3838,22 +3838,22 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="F64" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G64" t="s">
-        <v>564</v>
+        <v>306</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3864,22 +3864,22 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G65" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3890,19 +3890,19 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E66" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F66" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G66" t="s">
-        <v>445</v>
+        <v>563</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -3916,22 +3916,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="E67" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F67" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>564</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3942,19 +3942,19 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="F68" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="G68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H68">
         <v>100</v>
@@ -3968,22 +3968,22 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E69" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="F69" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="G69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H69">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3994,19 +3994,19 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="E70" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F70" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G70" t="s">
-        <v>545</v>
+        <v>350</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -4020,22 +4020,22 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E71" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F71" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G71" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="H71">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4046,22 +4046,22 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E72" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="F72" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G72" t="s">
-        <v>568</v>
+        <v>357</v>
       </c>
       <c r="H72">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4072,22 +4072,22 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E73" t="s">
         <v>400</v>
       </c>
       <c r="F73" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G73" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="H73">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4098,22 +4098,22 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G74" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="H74">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4124,22 +4124,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="F75" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G75" t="s">
-        <v>347</v>
+        <v>559</v>
       </c>
       <c r="H75">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4150,19 +4150,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E76" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="F76" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G76" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -4176,22 +4176,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="E77" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="F77" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="G77" t="s">
-        <v>346</v>
+        <v>569</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4202,19 +4202,19 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G78" t="s">
-        <v>570</v>
+        <v>345</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -4228,22 +4228,22 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="E79" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="F79" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G79" t="s">
-        <v>418</v>
+        <v>302</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4254,22 +4254,22 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="E80" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="G80" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="H80">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4280,22 +4280,22 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="F81" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="G81" t="s">
-        <v>397</v>
+        <v>570</v>
       </c>
       <c r="H81">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4306,22 +4306,22 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="F82" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="G82" t="s">
-        <v>398</v>
+        <v>323</v>
       </c>
       <c r="H82">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4332,22 +4332,22 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D83" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="F83" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G83" t="s">
-        <v>424</v>
+        <v>571</v>
       </c>
       <c r="H83">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4358,22 +4358,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="E84" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F84" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G84" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="H84">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4384,22 +4384,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="G85" t="s">
         <v>572</v>
       </c>
       <c r="H85">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4410,22 +4410,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="E86" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="F86" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="G86" t="s">
         <v>573</v>
       </c>
       <c r="H86">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4436,22 +4436,22 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="G87" t="s">
-        <v>406</v>
+        <v>566</v>
       </c>
       <c r="H87">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4462,22 +4462,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="E88" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="F88" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="G88" t="s">
-        <v>358</v>
+        <v>574</v>
       </c>
       <c r="H88">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4488,19 +4488,19 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="E89" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G89" t="s">
-        <v>574</v>
+        <v>321</v>
       </c>
       <c r="H89">
         <v>100</v>
@@ -4514,19 +4514,19 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E90" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="F90" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G90" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -4540,22 +4540,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="E91" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="F91" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G91" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H91">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4566,19 +4566,19 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="E92" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="F92" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H92">
         <v>100</v>
@@ -4592,22 +4592,22 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="E93" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="G93" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4618,22 +4618,22 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D94" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="E94" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="F94" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="G94" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="H94">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4644,22 +4644,22 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="E95" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="F95" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G95" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H95">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4670,19 +4670,19 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="E96" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="F96" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="G96" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="H96">
         <v>100</v>
@@ -4696,19 +4696,19 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="F97" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G97" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -4722,22 +4722,22 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E98" t="s">
-        <v>349</v>
+        <v>440</v>
       </c>
       <c r="F98" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="G98" t="s">
-        <v>410</v>
+        <v>581</v>
       </c>
       <c r="H98">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4748,22 +4748,22 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="E99" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="F99" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="G99" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H99">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4774,22 +4774,22 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E100" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="F100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G100" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H100">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4800,22 +4800,22 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="E101" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="G101" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H101">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4826,22 +4826,22 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="E102" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="F102" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G102" t="s">
-        <v>443</v>
+        <v>584</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4852,19 +4852,19 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D103" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="F103" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="G103" t="s">
-        <v>363</v>
+        <v>585</v>
       </c>
       <c r="H103">
         <v>100</v>
@@ -4878,22 +4878,22 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="E104" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F104" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G104" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H104">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4904,22 +4904,22 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="E105" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="F105" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H105">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4930,19 +4930,19 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="E106" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="F106" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G106" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H106">
         <v>100</v>
@@ -4959,16 +4959,16 @@
         <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="E107" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F107" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G107" t="s">
-        <v>585</v>
+        <v>282</v>
       </c>
       <c r="H107">
         <v>100</v>
@@ -4985,19 +4985,19 @@
         <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="E108" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F108" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G108" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="H108">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5011,16 +5011,16 @@
         <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="E109" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F109" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="G109" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H109">
         <v>100</v>
@@ -5037,19 +5037,19 @@
         <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="E110" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="F110" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="G110" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H110">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5063,19 +5063,19 @@
         <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="E111" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="F111" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G111" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="H111">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5089,19 +5089,19 @@
         <v>243</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="E112" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="F112" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G112" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H112">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5115,19 +5115,19 @@
         <v>244</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="E113" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F113" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="G113" t="s">
-        <v>590</v>
+        <v>288</v>
       </c>
       <c r="H113">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5141,19 +5141,19 @@
         <v>245</v>
       </c>
       <c r="D114" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="E114" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="G114" t="s">
-        <v>591</v>
+        <v>344</v>
       </c>
       <c r="H114">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5167,19 +5167,19 @@
         <v>246</v>
       </c>
       <c r="D115" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="E115" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F115" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G115" t="s">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="H115">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5193,19 +5193,19 @@
         <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="E116" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="F116" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="G116" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="H116">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5219,19 +5219,19 @@
         <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="E117" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F117" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="G117" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H117">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5245,19 +5245,19 @@
         <v>249</v>
       </c>
       <c r="D118" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="E118" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F118" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G118" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="H118">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5271,16 +5271,16 @@
         <v>250</v>
       </c>
       <c r="D119" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="E119" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="F119" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="G119" t="s">
-        <v>595</v>
+        <v>312</v>
       </c>
       <c r="H119">
         <v>100</v>
@@ -5297,16 +5297,16 @@
         <v>251</v>
       </c>
       <c r="D120" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="E120" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F120" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="G120" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H120">
         <v>100</v>
@@ -5323,19 +5323,19 @@
         <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="E121" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F121" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="G121" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="H121">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5349,16 +5349,16 @@
         <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="E122" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F122" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="G122" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="H122">
         <v>100</v>
@@ -5375,19 +5375,19 @@
         <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="E123" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F123" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="G123" t="s">
-        <v>428</v>
+        <v>596</v>
       </c>
       <c r="H123">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5401,16 +5401,16 @@
         <v>255</v>
       </c>
       <c r="D124" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="E124" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="F124" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="G124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H124">
         <v>100</v>
@@ -5427,19 +5427,19 @@
         <v>256</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="E125" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F125" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G125" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H125">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5453,19 +5453,19 @@
         <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="E126" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F126" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G126" t="s">
-        <v>357</v>
+        <v>599</v>
       </c>
       <c r="H126">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5479,13 +5479,13 @@
         <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="E127" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="F127" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G127" t="s">
         <v>600</v>
@@ -5505,19 +5505,19 @@
         <v>259</v>
       </c>
       <c r="D128" t="s">
-        <v>281</v>
+        <v>376</v>
       </c>
       <c r="E128" t="s">
-        <v>348</v>
+        <v>448</v>
       </c>
       <c r="F128" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G128" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="H128">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5531,19 +5531,19 @@
         <v>260</v>
       </c>
       <c r="D129" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="E129" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="F129" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="G129" t="s">
         <v>601</v>
       </c>
       <c r="H129">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5557,19 +5557,19 @@
         <v>261</v>
       </c>
       <c r="D130" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="E130" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F130" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="G130" t="s">
-        <v>602</v>
+        <v>354</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5583,19 +5583,19 @@
         <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="E131" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="F131" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="G131" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="H131">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5609,19 +5609,19 @@
         <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E132" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="F132" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G132" t="s">
         <v>603</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5635,19 +5635,19 @@
         <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="E133" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F133" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G133" t="s">
-        <v>432</v>
+        <v>604</v>
       </c>
       <c r="H133">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5661,19 +5661,19 @@
         <v>265</v>
       </c>
       <c r="D134" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="E134" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F134" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G134" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H134">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -631,177 +631,177 @@
     <t>GAST</t>
   </si>
   <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>WIU</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
     <t>BALL</t>
   </si>
   <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>FVS</t>
-  </si>
-  <si>
     <t>AKR</t>
   </si>
   <si>
@@ -811,7 +811,7 @@
     <t>MSU</t>
   </si>
   <si>
-    <t>KENT</t>
+    <t>KENN</t>
   </si>
   <si>
     <t>0.751</t>
@@ -2813,7 +2813,7 @@
         <v>294</v>
       </c>
       <c r="H24">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5049,7 +5049,7 @@
         <v>590</v>
       </c>
       <c r="H110">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5569,7 +5569,7 @@
         <v>354</v>
       </c>
       <c r="H130">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5673,7 +5673,7 @@
         <v>594</v>
       </c>
       <c r="H134">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -604,7 +604,7 @@
     <t>GASO</t>
   </si>
   <si>
-    <t>HCU</t>
+    <t>ACU</t>
   </si>
   <si>
     <t>USU</t>
@@ -631,187 +631,187 @@
     <t>GAST</t>
   </si>
   <si>
+    <t>NORF</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
     <t>KENT</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>WIU</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>KENN</t>
   </si>
   <si>
     <t>0.751</t>
@@ -5673,7 +5673,7 @@
         <v>594</v>
       </c>
       <c r="H134">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -40,1132 +40,1519 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>S Florida</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>GA Southern</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Oregon</t>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
   </si>
   <si>
     <t>Notre Dame</t>
   </si>
   <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Kansas</t>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>GA Southern</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Kent St</t>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>AKR</t>
   </si>
   <si>
     <t>ORE</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>TNST</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>MEM</t>
+    <t>EMU</t>
   </si>
   <si>
     <t>KU</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
     <t>SJSU</t>
   </si>
   <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>UVA</t>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>WYO</t>
   </si>
   <si>
     <t>ISU</t>
   </si>
   <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>ARST</t>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>ME</t>
   </si>
   <si>
     <t>WKU</t>
   </si>
   <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>ACU</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>NORF</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>WIS</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>KENT</t>
+    <t>75.7</t>
+  </si>
+  <si>
+    <t>85.3</t>
+  </si>
+  <si>
+    <t>83.7</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>82.7</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>79.7</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>78.3</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>74.3</t>
+  </si>
+  <si>
+    <t>75.3</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>72.3</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>61.7</t>
+  </si>
+  <si>
+    <t>76.3</t>
+  </si>
+  <si>
+    <t>80.3</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>62.3</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>63.7</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>55.3</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>64.3</t>
+  </si>
+  <si>
+    <t>64.7</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>61.3</t>
+  </si>
+  <si>
+    <t>66.3</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>73.7</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>60.7</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>65.3</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.516</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.400</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.440</t>
+  </si>
+  <si>
+    <t>0.490</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.481</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.410</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.340</t>
+  </si>
+  <si>
+    <t>0.540</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.192</t>
   </si>
   <si>
     <t>0.751</t>
   </si>
   <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.554</t>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.225</t>
   </si>
   <si>
     <t>0.719</t>
   </si>
   <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
     <t>0.475</t>
   </si>
   <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.490</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.702</t>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.326</t>
   </si>
   <si>
     <t>0.530</t>
   </si>
   <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.540</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.440</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.150</t>
-  </si>
-  <si>
-    <t>0.257</t>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>47.3</t>
   </si>
   <si>
     <t>25.0</t>
   </si>
   <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>15.7</t>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>42.0</t>
   </si>
   <si>
     <t>12.7</t>
@@ -1174,661 +1561,274 @@
     <t>11.0</t>
   </si>
   <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>61.7</t>
-  </si>
-  <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>65.3</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>73.7</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>54.7</t>
-  </si>
-  <si>
-    <t>69.3</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>79.7</t>
-  </si>
-  <si>
-    <t>74.3</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>63.7</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>62.7</t>
-  </si>
-  <si>
-    <t>77.3</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>76.3</t>
-  </si>
-  <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>71.7</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>85.3</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>62.3</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>68.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>75.7</t>
-  </si>
-  <si>
-    <t>72.7</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>82.7</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>70.7</t>
-  </si>
-  <si>
-    <t>83.7</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>61.3</t>
-  </si>
-  <si>
-    <t>75.3</t>
-  </si>
-  <si>
-    <t>72.3</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>71.3</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>66.3</t>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.472</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.484</t>
+  </si>
+  <si>
+    <t>0.418</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.330</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.360</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.223</t>
   </si>
   <si>
     <t>0.474</t>
   </si>
   <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.489</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
     <t>0.205</t>
   </si>
   <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
     <t>0.163</t>
   </si>
   <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.426</t>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.343</t>
   </si>
   <si>
     <t>0.377</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.465</t>
   </si>
 </sst>
 </file>
@@ -2226,22 +2226,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2252,19 +2252,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2278,19 +2278,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
+        <v>428</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -2304,22 +2304,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
         <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2330,22 +2330,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
         <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2356,22 +2356,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2382,22 +2382,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2408,19 +2408,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2434,19 +2434,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
         <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2460,22 +2460,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>525</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2486,19 +2486,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2515,19 +2515,19 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G13" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2541,19 +2541,19 @@
         <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
         <v>526</v>
       </c>
       <c r="H14">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2567,13 +2567,13 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G15" t="s">
         <v>527</v>
@@ -2593,19 +2593,19 @@
         <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="F16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G16" t="s">
         <v>528</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2616,16 +2616,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="F17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G17" t="s">
         <v>529</v>
@@ -2642,19 +2642,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
         <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G18" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -2668,22 +2668,22 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="F19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G19" t="s">
         <v>530</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2694,22 +2694,22 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G20" t="s">
-        <v>531</v>
+        <v>336</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2723,16 +2723,16 @@
         <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G21" t="s">
-        <v>315</v>
+        <v>531</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -2749,19 +2749,19 @@
         <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G22" t="s">
         <v>532</v>
       </c>
       <c r="H22">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2775,16 +2775,16 @@
         <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E23" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G23" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -2801,19 +2801,19 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G24" t="s">
-        <v>294</v>
+        <v>533</v>
       </c>
       <c r="H24">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2827,19 +2827,19 @@
         <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2853,16 +2853,16 @@
         <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2879,19 +2879,19 @@
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="F27" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2905,19 +2905,19 @@
         <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="F28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H28">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2931,19 +2931,19 @@
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="F29" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G29" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H29">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2957,19 +2957,19 @@
         <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="F30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H30">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2983,19 +2983,19 @@
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="F31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3009,16 +3009,16 @@
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="F32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -3035,16 +3035,16 @@
         <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G33" t="s">
-        <v>539</v>
+        <v>352</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -3061,19 +3061,19 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E34" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="F34" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G34" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H34">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3087,19 +3087,19 @@
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="F35" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G35" t="s">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="H35">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3113,19 +3113,19 @@
         <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="F36" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G36" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H36">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3139,19 +3139,19 @@
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>544</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3165,19 +3165,19 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="F38" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G38" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H38">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3191,16 +3191,16 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G39" t="s">
-        <v>543</v>
+        <v>424</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -3214,22 +3214,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="F40" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G40" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3240,22 +3240,22 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E41" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="G41" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H41">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3266,22 +3266,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E42" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="F42" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G42" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3292,22 +3292,22 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="F43" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G43" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H43">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3318,19 +3318,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E44" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="F44" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="G44" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H44">
         <v>100</v>
@@ -3344,22 +3344,22 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E45" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="F45" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H45">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3370,22 +3370,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="F46" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G46" t="s">
-        <v>550</v>
+        <v>361</v>
       </c>
       <c r="H46">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3396,22 +3396,22 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E47" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F47" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3422,19 +3422,19 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E48" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="F48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G48" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -3448,22 +3448,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E49" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G49" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3474,19 +3474,19 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E50" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -3500,22 +3500,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="E51" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="F51" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="H51">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3526,22 +3526,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E52" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F52" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G52" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H52">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3552,22 +3552,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="F53" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3578,22 +3578,22 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="F54" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="H54">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3604,22 +3604,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E55" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="F55" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>557</v>
+        <v>335</v>
       </c>
       <c r="H55">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3630,22 +3630,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H56">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3656,22 +3656,22 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="F57" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G57" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H57">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3682,22 +3682,22 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E58" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="F58" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="G58" t="s">
-        <v>301</v>
+        <v>558</v>
       </c>
       <c r="H58">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3708,19 +3708,19 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G59" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -3734,19 +3734,19 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>560</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3760,19 +3760,19 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="F61" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="G61" t="s">
-        <v>364</v>
+        <v>561</v>
       </c>
       <c r="H61">
         <v>100</v>
@@ -3786,22 +3786,22 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G62" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H62">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3812,22 +3812,22 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="F63" t="s">
         <v>486</v>
       </c>
       <c r="G63" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H63">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3838,22 +3838,22 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F64" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="G64" t="s">
-        <v>306</v>
+        <v>564</v>
       </c>
       <c r="H64">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3864,22 +3864,22 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G65" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="H65">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3890,19 +3890,19 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E66" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="G66" t="s">
-        <v>563</v>
+        <v>445</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -3916,22 +3916,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="F67" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G67" t="s">
-        <v>564</v>
+        <v>365</v>
       </c>
       <c r="H67">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3942,19 +3942,19 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="F68" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="G68" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H68">
         <v>100</v>
@@ -3968,22 +3968,22 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="F69" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H69">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3994,19 +3994,19 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F70" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -4020,22 +4020,22 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E71" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F71" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G71" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="H71">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4046,22 +4046,22 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="F72" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G72" t="s">
-        <v>357</v>
+        <v>568</v>
       </c>
       <c r="H72">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4072,22 +4072,22 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E73" t="s">
         <v>400</v>
       </c>
       <c r="F73" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G73" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="H73">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4098,22 +4098,22 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="E74" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="F74" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G74" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4124,22 +4124,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G75" t="s">
-        <v>559</v>
+        <v>347</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4150,19 +4150,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="F76" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -4176,22 +4176,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="E77" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="G77" t="s">
-        <v>569</v>
+        <v>346</v>
       </c>
       <c r="H77">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4202,19 +4202,19 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="F78" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G78" t="s">
-        <v>345</v>
+        <v>570</v>
       </c>
       <c r="H78">
         <v>100</v>
@@ -4228,22 +4228,22 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="E79" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="F79" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
       <c r="H79">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4254,22 +4254,22 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="E80" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="F80" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="G80" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4280,22 +4280,22 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="F81" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="G81" t="s">
-        <v>570</v>
+        <v>397</v>
       </c>
       <c r="H81">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4306,22 +4306,22 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D82" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="F82" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="H82">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4332,22 +4332,22 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="E83" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="F83" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G83" t="s">
-        <v>571</v>
+        <v>424</v>
       </c>
       <c r="H83">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4358,22 +4358,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F84" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G84" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4384,22 +4384,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D85" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="E85" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="F85" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G85" t="s">
         <v>572</v>
       </c>
       <c r="H85">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4410,22 +4410,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D86" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="F86" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G86" t="s">
         <v>573</v>
       </c>
       <c r="H86">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4436,22 +4436,22 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F87" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="G87" t="s">
-        <v>566</v>
+        <v>406</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4462,22 +4462,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="E88" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="G88" t="s">
-        <v>574</v>
+        <v>358</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4488,19 +4488,19 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F89" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G89" t="s">
-        <v>321</v>
+        <v>574</v>
       </c>
       <c r="H89">
         <v>100</v>
@@ -4514,19 +4514,19 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="G90" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -4540,22 +4540,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="F91" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G91" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H91">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4566,19 +4566,19 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D92" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="E92" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="F92" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G92" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H92">
         <v>100</v>
@@ -4592,22 +4592,22 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D93" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="F93" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="G93" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="H93">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4618,22 +4618,22 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="F94" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="G94" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="H94">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4644,22 +4644,22 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D95" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="F95" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="G95" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H95">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4670,19 +4670,19 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="E96" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="F96" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="H96">
         <v>100</v>
@@ -4696,19 +4696,19 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="E97" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F97" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="G97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -4722,22 +4722,22 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D98" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E98" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="F98" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="G98" t="s">
-        <v>581</v>
+        <v>410</v>
       </c>
       <c r="H98">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4748,22 +4748,22 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="F99" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="G99" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H99">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4774,22 +4774,22 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="D100" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E100" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="F100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G100" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4800,22 +4800,22 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E101" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="F101" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="G101" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="H101">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4826,22 +4826,22 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="E102" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F102" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G102" t="s">
-        <v>584</v>
+        <v>443</v>
       </c>
       <c r="H102">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4852,19 +4852,19 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E103" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="F103" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="G103" t="s">
-        <v>585</v>
+        <v>363</v>
       </c>
       <c r="H103">
         <v>100</v>
@@ -4878,22 +4878,22 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="F104" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G104" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H104">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4904,22 +4904,22 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="E105" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F105" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="G105" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H105">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4930,19 +4930,19 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E106" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="F106" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G106" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H106">
         <v>100</v>
@@ -4959,16 +4959,16 @@
         <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="E107" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F107" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="G107" t="s">
-        <v>282</v>
+        <v>585</v>
       </c>
       <c r="H107">
         <v>100</v>
@@ -4985,19 +4985,19 @@
         <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="F108" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G108" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="H108">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5011,16 +5011,16 @@
         <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="E109" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="G109" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H109">
         <v>100</v>
@@ -5037,19 +5037,19 @@
         <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="F110" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="G110" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H110">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5063,19 +5063,19 @@
         <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="E111" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G111" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="H111">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5089,19 +5089,19 @@
         <v>243</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="E112" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F112" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G112" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H112">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5115,19 +5115,19 @@
         <v>244</v>
       </c>
       <c r="D113" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F113" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="G113" t="s">
-        <v>288</v>
+        <v>590</v>
       </c>
       <c r="H113">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5141,19 +5141,19 @@
         <v>245</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="E114" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="F114" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="G114" t="s">
-        <v>344</v>
+        <v>591</v>
       </c>
       <c r="H114">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5167,19 +5167,19 @@
         <v>246</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F115" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G115" t="s">
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="H115">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5193,19 +5193,19 @@
         <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F116" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G116" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="H116">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5219,19 +5219,19 @@
         <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="E117" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F117" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="G117" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H117">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5245,19 +5245,19 @@
         <v>249</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="E118" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F118" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="G118" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
       <c r="H118">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5271,16 +5271,16 @@
         <v>250</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="E119" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F119" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="G119" t="s">
-        <v>312</v>
+        <v>595</v>
       </c>
       <c r="H119">
         <v>100</v>
@@ -5297,16 +5297,16 @@
         <v>251</v>
       </c>
       <c r="D120" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="E120" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F120" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="G120" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H120">
         <v>100</v>
@@ -5323,19 +5323,19 @@
         <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="E121" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="F121" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="G121" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="H121">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5349,16 +5349,16 @@
         <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="E122" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F122" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="G122" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="H122">
         <v>100</v>
@@ -5375,19 +5375,19 @@
         <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F123" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="G123" t="s">
-        <v>596</v>
+        <v>428</v>
       </c>
       <c r="H123">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5401,16 +5401,16 @@
         <v>255</v>
       </c>
       <c r="D124" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="E124" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F124" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="G124" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H124">
         <v>100</v>
@@ -5427,19 +5427,19 @@
         <v>256</v>
       </c>
       <c r="D125" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="E125" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="F125" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G125" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H125">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5453,19 +5453,19 @@
         <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F126" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G126" t="s">
-        <v>599</v>
+        <v>357</v>
       </c>
       <c r="H126">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5479,13 +5479,13 @@
         <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="E127" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="F127" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G127" t="s">
         <v>600</v>
@@ -5505,19 +5505,19 @@
         <v>259</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>281</v>
       </c>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
       <c r="F128" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G128" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="H128">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5531,19 +5531,19 @@
         <v>260</v>
       </c>
       <c r="D129" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="E129" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="F129" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="G129" t="s">
         <v>601</v>
       </c>
       <c r="H129">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5557,19 +5557,19 @@
         <v>261</v>
       </c>
       <c r="D130" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E130" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F130" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="G130" t="s">
-        <v>354</v>
+        <v>602</v>
       </c>
       <c r="H130">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5583,19 +5583,19 @@
         <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="E131" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="F131" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="G131" t="s">
-        <v>602</v>
+        <v>532</v>
       </c>
       <c r="H131">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5609,19 +5609,19 @@
         <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E132" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="F132" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G132" t="s">
         <v>603</v>
       </c>
       <c r="H132">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5635,19 +5635,19 @@
         <v>264</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="E133" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F133" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="G133" t="s">
-        <v>604</v>
+        <v>432</v>
       </c>
       <c r="H133">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5661,19 +5661,19 @@
         <v>265</v>
       </c>
       <c r="D134" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F134" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G134" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="H134">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/teamrankings.xlsx
+++ b/data/teamrankings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="280">
   <si>
     <t>Index</t>
   </si>
@@ -40,412 +40,667 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Sam Hous St</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>S Florida</t>
   </si>
   <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>San Jose St</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>N Illinois</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>San Diego St</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
     <t>North Texas</t>
   </si>
   <si>
-    <t>Clemson</t>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
   </si>
   <si>
     <t>TX Christian</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>Jksnville St</t>
   </si>
   <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Arkansas St</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
   <si>
     <t>GA Southern</t>
   </si>
   <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Florida Intl</t>
   </si>
   <si>
     <t>Tulsa</t>
   </si>
   <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UAB</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Michigan</t>
   </si>
   <si>
     <t>Middle Tenn</t>
   </si>
   <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Florida Intl</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>Sam Hous St</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>San Diego St</t>
-  </si>
-  <si>
-    <t>Arkansas St</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>N Illinois</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>San Jose St</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>CLEM</t>
   </si>
   <si>
     <t>FLA</t>
   </si>
   <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>SHSU</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>NCSU</t>
+  </si>
+  <si>
+    <t>SJSU</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
     <t>UNT</t>
   </si>
   <si>
-    <t>CLEM</t>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>FVS</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>WKU</t>
   </si>
   <si>
     <t>ACU</t>
@@ -454,1381 +709,151 @@
     <t>JVST</t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>OU</t>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>IDST</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>KENN</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>CAL</t>
   </si>
   <si>
     <t>GASO</t>
   </si>
   <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>MEM</t>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>FIU</t>
   </si>
   <si>
     <t>TLSA</t>
   </si>
   <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>CAL</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>WIS</t>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>EMU</t>
   </si>
   <si>
     <t>MTSU</t>
   </si>
   <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>UTU</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>TROY</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>SHSU</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>AAMU</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>KENN</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>TOL</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>TNST</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>75.7</t>
-  </si>
-  <si>
-    <t>85.3</t>
-  </si>
-  <si>
-    <t>83.7</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>82.7</t>
-  </si>
-  <si>
-    <t>69.7</t>
-  </si>
-  <si>
-    <t>79.7</t>
-  </si>
-  <si>
-    <t>77.3</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>78.3</t>
-  </si>
-  <si>
-    <t>69.3</t>
-  </si>
-  <si>
-    <t>74.3</t>
-  </si>
-  <si>
-    <t>75.3</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>68.3</t>
-  </si>
-  <si>
-    <t>72.3</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>61.7</t>
-  </si>
-  <si>
-    <t>76.3</t>
-  </si>
-  <si>
-    <t>80.3</t>
-  </si>
-  <si>
-    <t>68.7</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>71.7</t>
-  </si>
-  <si>
-    <t>71.3</t>
-  </si>
-  <si>
-    <t>62.7</t>
-  </si>
-  <si>
     <t>72.0</t>
   </si>
   <si>
-    <t>62.3</t>
-  </si>
-  <si>
-    <t>70.7</t>
-  </si>
-  <si>
-    <t>63.7</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>67.3</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>72.7</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>58.3</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>69.0</t>
   </si>
   <si>
-    <t>64.3</t>
-  </si>
-  <si>
-    <t>64.7</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>61.3</t>
-  </si>
-  <si>
-    <t>66.3</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>59.7</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>73.7</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>66.7</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
     <t>59.0</t>
   </si>
   <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>65.3</t>
-  </si>
-  <si>
-    <t>59.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>54.7</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.395</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.516</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.239</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.407</t>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
   <si>
     <t>0.333</t>
   </si>
   <si>
-    <t>0.400</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.460</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.456</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.492</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.440</t>
-  </si>
-  <si>
-    <t>0.490</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.720</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>0.540</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.150</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.414</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.439</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.530</t>
+    <t>0.420</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
   </si>
   <si>
     <t>21.0</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>20.7</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>38.7</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.472</t>
-  </si>
-  <si>
-    <t>0.510</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.450</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.484</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.473</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.377</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2226,22 +1251,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="H2">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2252,22 +1277,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>518</v>
+        <v>273</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2278,22 +1303,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>449</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>428</v>
+        <v>276</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2304,22 +1329,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>279</v>
       </c>
       <c r="G5" t="s">
-        <v>519</v>
+        <v>275</v>
       </c>
       <c r="H5">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2330,22 +1355,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2356,22 +1381,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>521</v>
+        <v>272</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2382,22 +1407,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
         <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
-        <v>522</v>
+        <v>272</v>
       </c>
       <c r="H8">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2408,19 +1433,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -2434,22 +1459,22 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>524</v>
+        <v>272</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2460,22 +1485,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>272</v>
       </c>
       <c r="G11" t="s">
-        <v>525</v>
+        <v>272</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2486,19 +1511,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="G12" t="s">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2512,22 +1537,22 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>272</v>
       </c>
       <c r="G13" t="s">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="H13">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2538,22 +1563,22 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E14" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>272</v>
       </c>
       <c r="G14" t="s">
-        <v>526</v>
+        <v>272</v>
       </c>
       <c r="H14">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2564,19 +1589,19 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
-        <v>527</v>
+        <v>272</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -2590,22 +1615,22 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>272</v>
       </c>
       <c r="G16" t="s">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2616,19 +1641,19 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>529</v>
+        <v>272</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -2642,22 +1667,22 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2668,19 +1693,19 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="G19" t="s">
-        <v>530</v>
+        <v>272</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -2694,19 +1719,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E20" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -2720,19 +1745,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="F21" t="s">
-        <v>464</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>531</v>
+        <v>272</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -2746,22 +1771,22 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="F22" t="s">
-        <v>465</v>
+        <v>272</v>
       </c>
       <c r="G22" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2772,22 +1797,22 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="F23" t="s">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
-        <v>530</v>
+        <v>272</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2798,22 +1823,22 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="F24" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="G24" t="s">
-        <v>533</v>
+        <v>272</v>
       </c>
       <c r="H24">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2824,22 +1849,22 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="F25" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>534</v>
+        <v>272</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2850,19 +1875,19 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>535</v>
+        <v>272</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -2876,22 +1901,22 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
         <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="F27" t="s">
-        <v>468</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2902,22 +1927,22 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="F28" t="s">
-        <v>469</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>536</v>
+        <v>272</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2928,22 +1953,22 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="F29" t="s">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>537</v>
+        <v>272</v>
       </c>
       <c r="H29">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2954,19 +1979,19 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="F30" t="s">
-        <v>470</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>538</v>
+        <v>272</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -2980,22 +2005,22 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="F31" t="s">
-        <v>471</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>539</v>
+        <v>272</v>
       </c>
       <c r="H31">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3006,19 +2031,19 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>540</v>
+        <v>272</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -3032,22 +2057,22 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E33" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="F33" t="s">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3058,22 +2083,22 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="F34" t="s">
-        <v>474</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>541</v>
+        <v>272</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3084,19 +2109,19 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="F35" t="s">
-        <v>471</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>542</v>
+        <v>272</v>
       </c>
       <c r="H35">
         <v>100</v>
@@ -3110,22 +2135,22 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>543</v>
+        <v>272</v>
       </c>
       <c r="H36">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3136,22 +2161,22 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="G37" t="s">
-        <v>544</v>
+        <v>272</v>
       </c>
       <c r="H37">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3162,19 +2187,19 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
-        <v>545</v>
+        <v>272</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -3188,22 +2213,22 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="F39" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3214,22 +2239,22 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="F40" t="s">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="H40">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3240,22 +2265,22 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E41" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s">
-        <v>546</v>
+        <v>272</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3266,22 +2291,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
-        <v>547</v>
+        <v>272</v>
       </c>
       <c r="H42">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3292,19 +2317,19 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E43" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="F43" t="s">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>272</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -3318,22 +2343,22 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>455</v>
+        <v>272</v>
       </c>
       <c r="G44" t="s">
-        <v>549</v>
+        <v>272</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3344,22 +2369,22 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>448</v>
+        <v>272</v>
       </c>
       <c r="G45" t="s">
-        <v>550</v>
+        <v>272</v>
       </c>
       <c r="H45">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3370,22 +2395,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="F46" t="s">
-        <v>466</v>
+        <v>272</v>
       </c>
       <c r="G46" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="H46">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3396,22 +2421,22 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="F47" t="s">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="G47" t="s">
-        <v>551</v>
+        <v>272</v>
       </c>
       <c r="H47">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3422,22 +2447,22 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E48" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="F48" t="s">
-        <v>477</v>
+        <v>272</v>
       </c>
       <c r="G48" t="s">
-        <v>552</v>
+        <v>272</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3448,22 +2473,22 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D49" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="F49" t="s">
-        <v>478</v>
+        <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>553</v>
+        <v>272</v>
       </c>
       <c r="H49">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3474,19 +2499,19 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E50" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="F50" t="s">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="G50" t="s">
-        <v>554</v>
+        <v>272</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -3500,19 +2525,19 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>479</v>
+        <v>272</v>
       </c>
       <c r="G51" t="s">
-        <v>529</v>
+        <v>272</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -3526,22 +2551,22 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="E52" t="s">
-        <v>379</v>
+        <v>272</v>
       </c>
       <c r="F52" t="s">
-        <v>480</v>
+        <v>272</v>
       </c>
       <c r="G52" t="s">
-        <v>549</v>
+        <v>272</v>
       </c>
       <c r="H52">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3552,22 +2577,22 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="G53" t="s">
-        <v>555</v>
+        <v>272</v>
       </c>
       <c r="H53">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3578,19 +2603,19 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E54" t="s">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="F54" t="s">
-        <v>471</v>
+        <v>272</v>
       </c>
       <c r="G54" t="s">
-        <v>519</v>
+        <v>272</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -3604,22 +2629,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>481</v>
+        <v>272</v>
       </c>
       <c r="G55" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="H55">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3630,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="G56" t="s">
-        <v>556</v>
+        <v>272</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3656,22 +2681,22 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D57" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="F57" t="s">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="G57" t="s">
-        <v>557</v>
+        <v>272</v>
       </c>
       <c r="H57">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3682,19 +2707,19 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>272</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>272</v>
       </c>
       <c r="G58" t="s">
-        <v>558</v>
+        <v>272</v>
       </c>
       <c r="H58">
         <v>100</v>
@@ -3708,22 +2733,22 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>272</v>
       </c>
       <c r="G59" t="s">
-        <v>559</v>
+        <v>272</v>
       </c>
       <c r="H59">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3734,19 +2759,19 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>272</v>
       </c>
       <c r="G60" t="s">
-        <v>560</v>
+        <v>272</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3760,22 +2785,22 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>272</v>
       </c>
       <c r="G61" t="s">
-        <v>561</v>
+        <v>272</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3786,22 +2811,22 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
+        <v>272</v>
       </c>
       <c r="G62" t="s">
-        <v>562</v>
+        <v>272</v>
       </c>
       <c r="H62">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3812,22 +2837,22 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E63" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>272</v>
       </c>
       <c r="G63" t="s">
-        <v>563</v>
+        <v>272</v>
       </c>
       <c r="H63">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3838,19 +2863,19 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>391</v>
+        <v>272</v>
       </c>
       <c r="F64" t="s">
-        <v>468</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
-        <v>564</v>
+        <v>272</v>
       </c>
       <c r="H64">
         <v>100</v>
@@ -3864,22 +2889,22 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="G65" t="s">
-        <v>565</v>
+        <v>272</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3890,22 +2915,22 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>393</v>
+        <v>272</v>
       </c>
       <c r="F66" t="s">
-        <v>488</v>
+        <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>445</v>
+        <v>272</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3916,22 +2941,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>489</v>
+        <v>272</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3942,22 +2967,22 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
       <c r="F68" t="s">
-        <v>478</v>
+        <v>272</v>
       </c>
       <c r="G68" t="s">
-        <v>566</v>
+        <v>272</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3968,22 +2993,22 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>396</v>
+        <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="G69" t="s">
-        <v>567</v>
+        <v>272</v>
       </c>
       <c r="H69">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3994,22 +3019,22 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E70" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>490</v>
+        <v>272</v>
       </c>
       <c r="G70" t="s">
-        <v>545</v>
+        <v>272</v>
       </c>
       <c r="H70">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4020,22 +3045,22 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="E71" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
       <c r="F71" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="G71" t="s">
-        <v>539</v>
+        <v>272</v>
       </c>
       <c r="H71">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4046,22 +3071,22 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E72" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="F72" t="s">
-        <v>492</v>
+        <v>272</v>
       </c>
       <c r="G72" t="s">
-        <v>568</v>
+        <v>272</v>
       </c>
       <c r="H72">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4072,22 +3097,22 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="E73" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="F73" t="s">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="G73" t="s">
-        <v>569</v>
+        <v>272</v>
       </c>
       <c r="H73">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4098,22 +3123,22 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E74" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="G74" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="H74">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4124,22 +3149,22 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="F75" t="s">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="G75" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="H75">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4150,19 +3175,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="E76" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="F76" t="s">
-        <v>494</v>
+        <v>272</v>
       </c>
       <c r="G76" t="s">
-        <v>526</v>
+        <v>272</v>
       </c>
       <c r="H76">
         <v>100</v>
@@ -4176,22 +3201,22 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D77" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E77" t="s">
-        <v>403</v>
+        <v>272</v>
       </c>
       <c r="F77" t="s">
-        <v>488</v>
+        <v>272</v>
       </c>
       <c r="G77" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4202,22 +3227,22 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>272</v>
       </c>
       <c r="G78" t="s">
-        <v>570</v>
+        <v>272</v>
       </c>
       <c r="H78">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4228,19 +3253,19 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="E79" t="s">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="F79" t="s">
-        <v>496</v>
+        <v>272</v>
       </c>
       <c r="G79" t="s">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="H79">
         <v>100</v>
@@ -4254,22 +3279,22 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
-        <v>391</v>
+        <v>272</v>
       </c>
       <c r="F80" t="s">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="G80" t="s">
-        <v>571</v>
+        <v>272</v>
       </c>
       <c r="H80">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4280,19 +3305,19 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>272</v>
       </c>
       <c r="F81" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="G81" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="H81">
         <v>100</v>
@@ -4306,22 +3331,22 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="F82" t="s">
-        <v>498</v>
+        <v>272</v>
       </c>
       <c r="G82" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
       <c r="H82">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4332,22 +3357,22 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D83" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="F83" t="s">
-        <v>495</v>
+        <v>272</v>
       </c>
       <c r="G83" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="H83">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4358,22 +3383,22 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E84" t="s">
-        <v>409</v>
+        <v>272</v>
       </c>
       <c r="F84" t="s">
-        <v>499</v>
+        <v>272</v>
       </c>
       <c r="G84" t="s">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="H84">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4384,22 +3409,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>272</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="G85" t="s">
-        <v>572</v>
+        <v>272</v>
       </c>
       <c r="H85">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4410,22 +3435,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E86" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="F86" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="G86" t="s">
-        <v>573</v>
+        <v>272</v>
       </c>
       <c r="H86">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4436,22 +3461,22 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>272</v>
       </c>
       <c r="F87" t="s">
-        <v>500</v>
+        <v>272</v>
       </c>
       <c r="G87" t="s">
-        <v>406</v>
+        <v>272</v>
       </c>
       <c r="H87">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4462,22 +3487,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E88" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
-        <v>501</v>
+        <v>272</v>
       </c>
       <c r="G88" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="H88">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4488,22 +3513,22 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="E89" t="s">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="F89" t="s">
-        <v>502</v>
+        <v>272</v>
       </c>
       <c r="G89" t="s">
-        <v>574</v>
+        <v>272</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4514,19 +3539,19 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="E90" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>489</v>
+        <v>272</v>
       </c>
       <c r="G90" t="s">
-        <v>575</v>
+        <v>272</v>
       </c>
       <c r="H90">
         <v>100</v>
@@ -4540,22 +3565,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E91" t="s">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="F91" t="s">
-        <v>503</v>
+        <v>272</v>
       </c>
       <c r="G91" t="s">
-        <v>576</v>
+        <v>272</v>
       </c>
       <c r="H91">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4566,22 +3591,22 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E92" t="s">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="F92" t="s">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="G92" t="s">
-        <v>577</v>
+        <v>272</v>
       </c>
       <c r="H92">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4592,19 +3617,19 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="E93" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>272</v>
       </c>
       <c r="G93" t="s">
-        <v>540</v>
+        <v>272</v>
       </c>
       <c r="H93">
         <v>100</v>
@@ -4618,22 +3643,22 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E94" t="s">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="F94" t="s">
-        <v>496</v>
+        <v>272</v>
       </c>
       <c r="G94" t="s">
-        <v>528</v>
+        <v>272</v>
       </c>
       <c r="H94">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4644,22 +3669,22 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="E95" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="F95" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="G95" t="s">
-        <v>578</v>
+        <v>272</v>
       </c>
       <c r="H95">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4670,19 +3695,19 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
-        <v>415</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="G96" t="s">
-        <v>438</v>
+        <v>272</v>
       </c>
       <c r="H96">
         <v>100</v>
@@ -4696,19 +3721,19 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="F97" t="s">
-        <v>505</v>
+        <v>272</v>
       </c>
       <c r="G97" t="s">
-        <v>579</v>
+        <v>272</v>
       </c>
       <c r="H97">
         <v>100</v>
@@ -4722,22 +3747,22 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="E98" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="F98" t="s">
-        <v>506</v>
+        <v>272</v>
       </c>
       <c r="G98" t="s">
-        <v>410</v>
+        <v>272</v>
       </c>
       <c r="H98">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4748,22 +3773,22 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
-        <v>416</v>
+        <v>272</v>
       </c>
       <c r="F99" t="s">
-        <v>507</v>
+        <v>272</v>
       </c>
       <c r="G99" t="s">
-        <v>580</v>
+        <v>272</v>
       </c>
       <c r="H99">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4774,22 +3799,22 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="F100" t="s">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="G100" t="s">
-        <v>581</v>
+        <v>272</v>
       </c>
       <c r="H100">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4800,19 +3825,19 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="G101" t="s">
-        <v>582</v>
+        <v>272</v>
       </c>
       <c r="H101">
         <v>100</v>
@@ -4826,22 +3851,22 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="D102" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E102" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="F102" t="s">
-        <v>455</v>
+        <v>272</v>
       </c>
       <c r="G102" t="s">
-        <v>443</v>
+        <v>272</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4852,22 +3877,22 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="F103" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="G103" t="s">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="H103">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4878,22 +3903,22 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="E104" t="s">
-        <v>419</v>
+        <v>272</v>
       </c>
       <c r="F104" t="s">
-        <v>508</v>
+        <v>272</v>
       </c>
       <c r="G104" t="s">
-        <v>583</v>
+        <v>272</v>
       </c>
       <c r="H104">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4904,22 +3929,22 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D105" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E105" t="s">
-        <v>420</v>
+        <v>272</v>
       </c>
       <c r="F105" t="s">
-        <v>509</v>
+        <v>272</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>272</v>
       </c>
       <c r="H105">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4930,22 +3955,22 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="E106" t="s">
-        <v>421</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="G106" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="H106">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4956,19 +3981,19 @@
         <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="E107" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="F107" t="s">
-        <v>479</v>
+        <v>272</v>
       </c>
       <c r="G107" t="s">
-        <v>585</v>
+        <v>272</v>
       </c>
       <c r="H107">
         <v>100</v>
@@ -4982,22 +4007,22 @@
         <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E108" t="s">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="F108" t="s">
-        <v>494</v>
+        <v>272</v>
       </c>
       <c r="G108" t="s">
-        <v>527</v>
+        <v>272</v>
       </c>
       <c r="H108">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5008,22 +4033,22 @@
         <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="E109" t="s">
-        <v>423</v>
+        <v>272</v>
       </c>
       <c r="F109" t="s">
-        <v>469</v>
+        <v>272</v>
       </c>
       <c r="G109" t="s">
-        <v>586</v>
+        <v>272</v>
       </c>
       <c r="H109">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5034,19 +4059,19 @@
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E110" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="F110" t="s">
-        <v>488</v>
+        <v>272</v>
       </c>
       <c r="G110" t="s">
-        <v>587</v>
+        <v>272</v>
       </c>
       <c r="H110">
         <v>100</v>
@@ -5060,22 +4085,22 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="E111" t="s">
-        <v>425</v>
+        <v>272</v>
       </c>
       <c r="F111" t="s">
-        <v>510</v>
+        <v>272</v>
       </c>
       <c r="G111" t="s">
-        <v>588</v>
+        <v>272</v>
       </c>
       <c r="H111">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5086,22 +4111,22 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="E112" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="F112" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="G112" t="s">
-        <v>589</v>
+        <v>272</v>
       </c>
       <c r="H112">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5112,22 +4137,22 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E113" t="s">
-        <v>427</v>
+        <v>272</v>
       </c>
       <c r="F113" t="s">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="G113" t="s">
-        <v>590</v>
+        <v>272</v>
       </c>
       <c r="H113">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5138,19 +4163,19 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D114" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="E114" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>272</v>
       </c>
       <c r="G114" t="s">
-        <v>591</v>
+        <v>272</v>
       </c>
       <c r="H114">
         <v>100</v>
@@ -5164,22 +4189,22 @@
         <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E115" t="s">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="F115" t="s">
-        <v>500</v>
+        <v>272</v>
       </c>
       <c r="G115" t="s">
-        <v>592</v>
+        <v>272</v>
       </c>
       <c r="H115">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5190,22 +4215,22 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E116" t="s">
-        <v>430</v>
+        <v>272</v>
       </c>
       <c r="F116" t="s">
-        <v>458</v>
+        <v>272</v>
       </c>
       <c r="G116" t="s">
-        <v>593</v>
+        <v>272</v>
       </c>
       <c r="H116">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5216,22 +4241,22 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E117" t="s">
-        <v>431</v>
+        <v>272</v>
       </c>
       <c r="F117" t="s">
-        <v>462</v>
+        <v>272</v>
       </c>
       <c r="G117" t="s">
-        <v>594</v>
+        <v>272</v>
       </c>
       <c r="H117">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5242,19 +4267,19 @@
         <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E118" t="s">
-        <v>432</v>
+        <v>272</v>
       </c>
       <c r="F118" t="s">
-        <v>511</v>
+        <v>272</v>
       </c>
       <c r="G118" t="s">
-        <v>535</v>
+        <v>272</v>
       </c>
       <c r="H118">
         <v>100</v>
@@ -5268,19 +4293,19 @@
         <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D119" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="E119" t="s">
-        <v>433</v>
+        <v>272</v>
       </c>
       <c r="F119" t="s">
-        <v>512</v>
+        <v>272</v>
       </c>
       <c r="G119" t="s">
-        <v>595</v>
+        <v>272</v>
       </c>
       <c r="H119">
         <v>100</v>
@@ -5294,22 +4319,22 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D120" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="E120" t="s">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="F120" t="s">
-        <v>513</v>
+        <v>272</v>
       </c>
       <c r="G120" t="s">
-        <v>596</v>
+        <v>272</v>
       </c>
       <c r="H120">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5320,22 +4345,22 @@
         <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D121" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E121" t="s">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="F121" t="s">
-        <v>498</v>
+        <v>272</v>
       </c>
       <c r="G121" t="s">
-        <v>597</v>
+        <v>272</v>
       </c>
       <c r="H121">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5346,19 +4371,19 @@
         <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D122" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="E122" t="s">
-        <v>436</v>
+        <v>272</v>
       </c>
       <c r="F122" t="s">
-        <v>475</v>
+        <v>272</v>
       </c>
       <c r="G122" t="s">
-        <v>554</v>
+        <v>272</v>
       </c>
       <c r="H122">
         <v>100</v>
@@ -5372,22 +4397,22 @@
         <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="E123" t="s">
-        <v>437</v>
+        <v>272</v>
       </c>
       <c r="F123" t="s">
-        <v>450</v>
+        <v>272</v>
       </c>
       <c r="G123" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="H123">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5398,22 +4423,22 @@
         <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D124" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E124" t="s">
-        <v>438</v>
+        <v>272</v>
       </c>
       <c r="F124" t="s">
-        <v>474</v>
+        <v>272</v>
       </c>
       <c r="G124" t="s">
-        <v>598</v>
+        <v>272</v>
       </c>
       <c r="H124">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5424,22 +4449,22 @@
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E125" t="s">
-        <v>439</v>
+        <v>272</v>
       </c>
       <c r="F125" t="s">
-        <v>514</v>
+        <v>272</v>
       </c>
       <c r="G125" t="s">
-        <v>599</v>
+        <v>272</v>
       </c>
       <c r="H125">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5450,22 +4475,22 @@
         <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E126" t="s">
-        <v>440</v>
+        <v>272</v>
       </c>
       <c r="F126" t="s">
-        <v>499</v>
+        <v>272</v>
       </c>
       <c r="G126" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="H126">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5476,19 +4501,19 @@
         <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="E127" t="s">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="F127" t="s">
-        <v>509</v>
+        <v>272</v>
       </c>
       <c r="G127" t="s">
-        <v>600</v>
+        <v>272</v>
       </c>
       <c r="H127">
         <v>100</v>
@@ -5502,22 +4527,22 @@
         <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D128" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E128" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="F128" t="s">
-        <v>478</v>
+        <v>272</v>
       </c>
       <c r="G128" t="s">
-        <v>566</v>
+        <v>272</v>
       </c>
       <c r="H128">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5528,19 +4553,19 @@
         <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D129" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>442</v>
+        <v>272</v>
       </c>
       <c r="F129" t="s">
-        <v>486</v>
+        <v>272</v>
       </c>
       <c r="G129" t="s">
-        <v>601</v>
+        <v>272</v>
       </c>
       <c r="H129">
         <v>100</v>
@@ -5554,22 +4579,22 @@
         <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="E130" t="s">
-        <v>443</v>
+        <v>272</v>
       </c>
       <c r="F130" t="s">
-        <v>515</v>
+        <v>272</v>
       </c>
       <c r="G130" t="s">
-        <v>602</v>
+        <v>272</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5580,22 +4605,22 @@
         <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D131" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="E131" t="s">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="F131" t="s">
-        <v>498</v>
+        <v>272</v>
       </c>
       <c r="G131" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
       <c r="H131">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5606,22 +4631,22 @@
         <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D132" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="E132" t="s">
-        <v>445</v>
+        <v>272</v>
       </c>
       <c r="F132" t="s">
-        <v>495</v>
+        <v>272</v>
       </c>
       <c r="G132" t="s">
-        <v>603</v>
+        <v>272</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5632,22 +4657,22 @@
         <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="E133" t="s">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="F133" t="s">
-        <v>516</v>
+        <v>272</v>
       </c>
       <c r="G133" t="s">
-        <v>432</v>
+        <v>272</v>
       </c>
       <c r="H133">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5658,22 +4683,48 @@
         <v>140</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D134" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E134" t="s">
-        <v>446</v>
+        <v>272</v>
       </c>
       <c r="F134" t="s">
-        <v>461</v>
+        <v>272</v>
       </c>
       <c r="G134" t="s">
-        <v>604</v>
+        <v>272</v>
       </c>
       <c r="H134">
         <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" t="s">
+        <v>272</v>
+      </c>
+      <c r="E135" t="s">
+        <v>272</v>
+      </c>
+      <c r="F135" t="s">
+        <v>272</v>
+      </c>
+      <c r="G135" t="s">
+        <v>272</v>
+      </c>
+      <c r="H135">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
